--- a/history-questions.xlsx
+++ b/history-questions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lilibeit/Documents/Flatiron/Git/phase_5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lilibeit/Documents/Flatiron/Git/phase_5/nhanes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545DCAFA-D95E-FD46-900D-8BD08EE7284A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576FB339-EFD9-BC49-908B-040D03AA4282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="25220" windowHeight="14600" xr2:uid="{B5671264-7E19-F24F-B3D6-F0053EE97531}"/>
+    <workbookView minimized="1" xWindow="29000" yWindow="460" windowWidth="25220" windowHeight="14580" xr2:uid="{B5671264-7E19-F24F-B3D6-F0053EE97531}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2119,12 +2119,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2140,69 +2146,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2514,8 +2471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060CE42F-08E5-7240-89BE-CFFA503FCE66}">
   <dimension ref="A1:E240"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C163" sqref="C163"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="B210" sqref="B210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3647,7 +3604,7 @@
       <c r="A67" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C67" s="4" t="s">
@@ -3664,7 +3621,7 @@
       <c r="A68" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -3681,7 +3638,7 @@
       <c r="A69" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C69" s="4" t="s">
@@ -3698,7 +3655,7 @@
       <c r="A70" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -3715,7 +3672,7 @@
       <c r="A71" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C71" s="4" t="s">
@@ -3732,7 +3689,7 @@
       <c r="A72" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -3749,7 +3706,7 @@
       <c r="A73" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -3766,7 +3723,7 @@
       <c r="A74" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -3783,7 +3740,7 @@
       <c r="A75" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C75" s="4" t="s">
@@ -3800,7 +3757,7 @@
       <c r="A76" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -3817,7 +3774,7 @@
       <c r="A77" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C77" s="4" t="s">
@@ -5888,7 +5845,7 @@
       <c r="A199" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B199" s="4" t="s">
+      <c r="B199" s="5" t="s">
         <v>200</v>
       </c>
       <c r="C199" s="4" t="s">
@@ -5905,7 +5862,7 @@
       <c r="A200" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B200" s="6" t="s">
         <v>204</v>
       </c>
       <c r="C200" s="2" t="s">
@@ -5922,7 +5879,7 @@
       <c r="A201" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="B201" s="4" t="s">
+      <c r="B201" s="5" t="s">
         <v>332</v>
       </c>
       <c r="C201" s="4" t="s">
@@ -5956,7 +5913,7 @@
       <c r="A203" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="B203" s="4" t="s">
+      <c r="B203" s="5" t="s">
         <v>290</v>
       </c>
       <c r="C203" s="4" t="s">
@@ -6466,7 +6423,7 @@
       <c r="A233" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B233" s="4" t="s">
+      <c r="B233" s="5" t="s">
         <v>244</v>
       </c>
       <c r="C233" s="4" t="s">
@@ -6483,7 +6440,7 @@
       <c r="A234" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="B234" s="6" t="s">
         <v>247</v>
       </c>
       <c r="C234" s="2" t="s">
@@ -6500,7 +6457,7 @@
       <c r="A235" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="B235" s="4" t="s">
+      <c r="B235" s="5" t="s">
         <v>250</v>
       </c>
       <c r="C235" s="4" t="s">
@@ -6517,7 +6474,7 @@
       <c r="A236" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B236" s="2" t="s">
+      <c r="B236" s="6" t="s">
         <v>253</v>
       </c>
       <c r="C236" s="2" t="s">
@@ -6534,7 +6491,7 @@
       <c r="A237" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="B237" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C237" s="2" t="s">

--- a/history-questions.xlsx
+++ b/history-questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lilibeit/Documents/Flatiron/Git/phase_5/nhanes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576FB339-EFD9-BC49-908B-040D03AA4282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218FA374-2DC9-004D-91FF-46D5505CE5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="29000" yWindow="460" windowWidth="25220" windowHeight="14580" xr2:uid="{B5671264-7E19-F24F-B3D6-F0053EE97531}"/>
+    <workbookView xWindow="1600" yWindow="460" windowWidth="25600" windowHeight="14540" xr2:uid="{B5671264-7E19-F24F-B3D6-F0053EE97531}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="693">
   <si>
     <t>Variable Name</t>
   </si>
@@ -2077,13 +2077,49 @@
   </si>
   <si>
     <t>Sleep Disorders (SLQ_J)</t>
+  </si>
+  <si>
+    <t>DIQ060U</t>
+  </si>
+  <si>
+    <t>Unit of measure (month/year)</t>
+  </si>
+  <si>
+    <t>Time since last used marijuana regularly</t>
+  </si>
+  <si>
+    <t>DUQ215Q</t>
+  </si>
+  <si>
+    <t>DUQ217 - How often would you use marijuana?</t>
+  </si>
+  <si>
+    <t>DUQ219 - How many joints or pipes smoke in a day?</t>
+  </si>
+  <si>
+    <t>DUQ272 - # of time you used cocaine</t>
+  </si>
+  <si>
+    <t>DUQ280 - # of days used cocaine/month</t>
+  </si>
+  <si>
+    <t>DUQ320 - # of days used heroin/month</t>
+  </si>
+  <si>
+    <t>DUQ330 - Ever used methamphetamine</t>
+  </si>
+  <si>
+    <t>DUQ352 - # times used methamphetamine</t>
+  </si>
+  <si>
+    <t>DUQ360 - # days used methamphetamine/month</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2118,8 +2154,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2129,6 +2177,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2146,7 +2200,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2154,6 +2208,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2469,10 +2527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060CE42F-08E5-7240-89BE-CFFA503FCE66}">
-  <dimension ref="A1:E240"/>
+  <dimension ref="A1:E250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2499,10 +2557,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>207</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2516,10 +2574,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>211</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -2533,10 +2591,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>213</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -2873,10 +2931,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="7" t="s">
         <v>588</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -2890,10 +2948,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="7" t="s">
         <v>500</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -2992,10 +3050,10 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -3009,10 +3067,10 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="8" t="s">
         <v>295</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -3026,99 +3084,93 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="E34" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="E35" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="E36" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="E37" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B38" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>13</v>
@@ -3128,48 +3180,42 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B41" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>13</v>
@@ -3179,14 +3225,14 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>463</v>
+      <c r="A42" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>265</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>464</v>
+        <v>266</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>13</v>
@@ -3196,14 +3242,14 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>133</v>
+      <c r="A43" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>134</v>
+        <v>266</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>13</v>
@@ -3212,83 +3258,67 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>686</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B48" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>276</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>13</v>
@@ -3298,14 +3328,14 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>278</v>
+      <c r="A49" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>273</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>13</v>
@@ -3314,372 +3344,324 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+    <row r="50" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B58" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C58" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D58" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="E58" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B59" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+      <c r="E59" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B60" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C60" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D60" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="E60" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B61" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+      <c r="E61" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B64" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C64" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>543</v>
-      </c>
       <c r="E64" s="3" t="s">
-        <v>544</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>548</v>
+        <v>284</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>549</v>
+        <v>285</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>549</v>
+        <v>286</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>543</v>
+        <v>13</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>544</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>550</v>
+        <v>287</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>551</v>
+        <v>288</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>551</v>
+        <v>286</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>543</v>
+        <v>13</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>544</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>21</v>
+      <c r="A67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>21</v>
+      <c r="A68" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>558</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>21</v>
+      <c r="A69" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>558</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>21</v>
+      <c r="A70" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>21</v>
+      <c r="A71" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>516</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>9</v>
@@ -3687,16 +3669,16 @@
     </row>
     <row r="72" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>35</v>
+        <v>513</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>514</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>36</v>
+        <v>515</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>21</v>
+        <v>516</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>9</v>
@@ -3704,81 +3686,81 @@
     </row>
     <row r="73" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>38</v>
+        <v>540</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>541</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>39</v>
+        <v>542</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>21</v>
+        <v>543</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>9</v>
+        <v>544</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>41</v>
+        <v>545</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>546</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>42</v>
+        <v>547</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>21</v>
+        <v>543</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>9</v>
+        <v>544</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>44</v>
+        <v>548</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>549</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>45</v>
+        <v>549</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>21</v>
+        <v>543</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>9</v>
+        <v>544</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>47</v>
+        <v>550</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>551</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>48</v>
+        <v>551</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>21</v>
+        <v>543</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>9</v>
+        <v>544</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>21</v>
@@ -3788,16 +3770,16 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D78" s="4" t="s">
+      <c r="A78" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E78" s="3" t="s">
@@ -3805,16 +3787,16 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D79" s="2" t="s">
+      <c r="A79" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D79" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E79" s="3" t="s">
@@ -3822,16 +3804,16 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D80" s="4" t="s">
+      <c r="A80" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E80" s="3" t="s">
@@ -3840,13 +3822,13 @@
     </row>
     <row r="81" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>600</v>
+        <v>31</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>601</v>
+        <v>33</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>21</v>
@@ -3857,13 +3839,13 @@
     </row>
     <row r="82" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>21</v>
@@ -3873,16 +3855,16 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="D83" s="2" t="s">
+      <c r="A83" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E83" s="3" t="s">
@@ -3890,16 +3872,16 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D84" s="4" t="s">
+      <c r="A84" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E84" s="3" t="s">
@@ -3907,16 +3889,16 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="D85" s="2" t="s">
+      <c r="A85" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D85" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E85" s="3" t="s">
@@ -3924,16 +3906,16 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>610</v>
-      </c>
-      <c r="D86" s="4" t="s">
+      <c r="A86" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E86" s="3" t="s">
@@ -3941,16 +3923,16 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="D87" s="2" t="s">
+      <c r="A87" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D87" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E87" s="3" t="s">
@@ -3959,13 +3941,13 @@
     </row>
     <row r="88" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>614</v>
+        <v>144</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>615</v>
+        <v>145</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>616</v>
+        <v>146</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>21</v>
@@ -3976,13 +3958,13 @@
     </row>
     <row r="89" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>617</v>
+        <v>147</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>618</v>
+        <v>148</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>619</v>
+        <v>149</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>21</v>
@@ -3993,13 +3975,13 @@
     </row>
     <row r="90" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>620</v>
+        <v>150</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>621</v>
+        <v>151</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>622</v>
+        <v>152</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>21</v>
@@ -4009,16 +3991,16 @@
       </c>
     </row>
     <row r="91" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="D91" s="2" t="s">
+      <c r="A91" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="D91" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E91" s="3" t="s">
@@ -4026,16 +4008,16 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
-        <v>626</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>628</v>
-      </c>
-      <c r="D92" s="4" t="s">
+      <c r="A92" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E92" s="3" t="s">
@@ -4043,16 +4025,16 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="D93" s="4" t="s">
+      <c r="A93" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E93" s="3" t="s">
@@ -4061,13 +4043,13 @@
     </row>
     <row r="94" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>629</v>
+        <v>153</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>630</v>
+        <v>154</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>631</v>
+        <v>155</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>21</v>
@@ -4077,16 +4059,16 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>632</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>633</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="D95" s="4" t="s">
+      <c r="A95" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E95" s="3" t="s">
@@ -4094,16 +4076,16 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="D96" s="2" t="s">
+      <c r="A96" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="D96" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E96" s="3" t="s">
@@ -4111,16 +4093,16 @@
       </c>
     </row>
     <row r="97" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D97" s="4" t="s">
+      <c r="A97" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E97" s="3" t="s">
@@ -4129,13 +4111,13 @@
     </row>
     <row r="98" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>638</v>
+        <v>614</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>639</v>
+        <v>615</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>640</v>
+        <v>616</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>21</v>
@@ -4146,13 +4128,13 @@
     </row>
     <row r="99" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>255</v>
+        <v>617</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>256</v>
+        <v>618</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>257</v>
+        <v>619</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>21</v>
@@ -4163,13 +4145,13 @@
     </row>
     <row r="100" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>258</v>
+        <v>620</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>259</v>
+        <v>621</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>260</v>
+        <v>622</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>21</v>
@@ -4180,13 +4162,13 @@
     </row>
     <row r="101" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>261</v>
+        <v>623</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>262</v>
+        <v>624</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>263</v>
+        <v>625</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>21</v>
@@ -4197,13 +4179,13 @@
     </row>
     <row r="102" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>517</v>
+        <v>626</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>518</v>
+        <v>627</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>519</v>
+        <v>628</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>21</v>
@@ -4213,16 +4195,16 @@
       </c>
     </row>
     <row r="103" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="D103" s="2" t="s">
+      <c r="A103" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="D103" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E103" s="3" t="s">
@@ -4231,13 +4213,13 @@
     </row>
     <row r="104" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>567</v>
+        <v>629</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>568</v>
+        <v>630</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>566</v>
+        <v>631</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>21</v>
@@ -4248,13 +4230,13 @@
     </row>
     <row r="105" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>569</v>
+        <v>632</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>570</v>
+        <v>633</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>566</v>
+        <v>634</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>21</v>
@@ -4265,13 +4247,13 @@
     </row>
     <row r="106" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>571</v>
+        <v>635</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>572</v>
+        <v>636</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>566</v>
+        <v>637</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>21</v>
@@ -4282,13 +4264,13 @@
     </row>
     <row r="107" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>573</v>
+        <v>55</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>574</v>
+        <v>56</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>566</v>
+        <v>57</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>21</v>
@@ -4298,16 +4280,16 @@
       </c>
     </row>
     <row r="108" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="D108" s="2" t="s">
+      <c r="A108" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="D108" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E108" s="3" t="s">
@@ -4316,13 +4298,13 @@
     </row>
     <row r="109" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>520</v>
+        <v>255</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>521</v>
+        <v>256</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>522</v>
+        <v>257</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>21</v>
@@ -4332,16 +4314,16 @@
       </c>
     </row>
     <row r="110" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D110" s="2" t="s">
+      <c r="A110" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D110" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E110" s="3" t="s">
@@ -4349,17 +4331,17 @@
       </c>
     </row>
     <row r="111" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>303</v>
+      <c r="A111" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>9</v>
@@ -4367,16 +4349,16 @@
     </row>
     <row r="112" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>303</v>
+        <v>21</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>9</v>
@@ -4384,16 +4366,16 @@
     </row>
     <row r="113" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>304</v>
+        <v>564</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>305</v>
+        <v>565</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>306</v>
+        <v>566</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>303</v>
+        <v>21</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>9</v>
@@ -4401,16 +4383,16 @@
     </row>
     <row r="114" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>307</v>
+        <v>567</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>308</v>
+        <v>568</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>309</v>
+        <v>566</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>159</v>
+        <v>21</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>9</v>
@@ -4418,33 +4400,33 @@
     </row>
     <row r="115" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>225</v>
+        <v>569</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>223</v>
+        <v>570</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>224</v>
+        <v>566</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>159</v>
+        <v>21</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>159</v>
+      <c r="A116" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>9</v>
@@ -4452,16 +4434,16 @@
     </row>
     <row r="117" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>229</v>
+        <v>573</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>227</v>
+        <v>574</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>228</v>
+        <v>566</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>159</v>
+        <v>21</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>9</v>
@@ -4469,33 +4451,33 @@
     </row>
     <row r="118" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>156</v>
+        <v>641</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>157</v>
+        <v>642</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>158</v>
+        <v>643</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>159</v>
+        <v>21</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A119" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>159</v>
+      <c r="A119" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>9</v>
@@ -4503,16 +4485,16 @@
     </row>
     <row r="120" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>161</v>
+        <v>58</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>163</v>
+        <v>60</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>159</v>
+        <v>21</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>9</v>
@@ -4520,33 +4502,33 @@
     </row>
     <row r="121" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>164</v>
+        <v>300</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>162</v>
+        <v>301</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>163</v>
+        <v>302</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>159</v>
+        <v>303</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>159</v>
+      <c r="A122" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>303</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>9</v>
@@ -4554,16 +4536,16 @@
     </row>
     <row r="123" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>526</v>
+        <v>304</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>527</v>
+        <v>305</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>528</v>
+        <v>306</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>159</v>
+        <v>303</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>9</v>
@@ -4571,13 +4553,13 @@
     </row>
     <row r="124" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>529</v>
+        <v>307</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>530</v>
+        <v>308</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>531</v>
+        <v>309</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>159</v>
@@ -4587,136 +4569,136 @@
       </c>
     </row>
     <row r="125" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>535</v>
+      <c r="A125" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>536</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>61</v>
+        <v>226</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>62</v>
+        <v>227</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>63</v>
+        <v>228</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>64</v>
+      <c r="A127" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A128" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>64</v>
+      <c r="A128" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>64</v>
+      <c r="A129" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A130" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>64</v>
+      <c r="A130" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>64</v>
+      <c r="A131" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A132" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>64</v>
+      <c r="A132" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>9</v>
@@ -4724,16 +4706,16 @@
     </row>
     <row r="133" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>83</v>
+        <v>526</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>84</v>
+        <v>527</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>85</v>
+        <v>528</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>9</v>
@@ -4741,16 +4723,16 @@
     </row>
     <row r="134" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>86</v>
+        <v>529</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>87</v>
+        <v>530</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>88</v>
+        <v>531</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>9</v>
@@ -4758,30 +4740,30 @@
     </row>
     <row r="135" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>89</v>
+        <v>532</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>90</v>
+        <v>533</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>91</v>
+        <v>534</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>64</v>
+        <v>535</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>9</v>
+        <v>536</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>64</v>
@@ -4792,13 +4774,13 @@
     </row>
     <row r="137" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>64</v>
@@ -4809,13 +4791,13 @@
     </row>
     <row r="138" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>64</v>
@@ -4826,13 +4808,13 @@
     </row>
     <row r="139" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>166</v>
+        <v>71</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>167</v>
+        <v>72</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>168</v>
+        <v>73</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>64</v>
@@ -4843,13 +4825,13 @@
     </row>
     <row r="140" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>64</v>
@@ -4860,13 +4842,13 @@
     </row>
     <row r="141" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>64</v>
@@ -4877,13 +4859,13 @@
     </row>
     <row r="142" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>64</v>
@@ -4894,13 +4876,13 @@
     </row>
     <row r="143" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>167</v>
+        <v>84</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>176</v>
+        <v>85</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>64</v>
@@ -4911,13 +4893,13 @@
     </row>
     <row r="144" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>177</v>
+        <v>86</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>178</v>
+        <v>88</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>64</v>
@@ -4928,13 +4910,13 @@
     </row>
     <row r="145" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>179</v>
+        <v>89</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>167</v>
+        <v>90</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>180</v>
+        <v>91</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>64</v>
@@ -4945,13 +4927,13 @@
     </row>
     <row r="146" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>644</v>
+        <v>92</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>645</v>
+        <v>93</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>646</v>
+        <v>94</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>64</v>
@@ -4962,13 +4944,13 @@
     </row>
     <row r="147" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>647</v>
+        <v>95</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>648</v>
+        <v>96</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>649</v>
+        <v>97</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>64</v>
@@ -4979,13 +4961,13 @@
     </row>
     <row r="148" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>650</v>
+        <v>98</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>651</v>
+        <v>99</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>652</v>
+        <v>100</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>64</v>
@@ -4996,13 +4978,13 @@
     </row>
     <row r="149" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>653</v>
+        <v>166</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>654</v>
+        <v>167</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>655</v>
+        <v>168</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>64</v>
@@ -5013,13 +4995,13 @@
     </row>
     <row r="150" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>656</v>
+        <v>169</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>657</v>
+        <v>167</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>658</v>
+        <v>170</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>64</v>
@@ -5030,13 +5012,13 @@
     </row>
     <row r="151" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>659</v>
+        <v>171</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>660</v>
+        <v>167</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>661</v>
+        <v>172</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>64</v>
@@ -5047,13 +5029,13 @@
     </row>
     <row r="152" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>662</v>
+        <v>173</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>660</v>
+        <v>167</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>661</v>
+        <v>174</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>64</v>
@@ -5064,13 +5046,13 @@
     </row>
     <row r="153" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>663</v>
+        <v>175</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>660</v>
+        <v>167</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>661</v>
+        <v>176</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>64</v>
@@ -5081,13 +5063,13 @@
     </row>
     <row r="154" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>664</v>
+        <v>177</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>660</v>
+        <v>167</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>661</v>
+        <v>178</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>64</v>
@@ -5098,13 +5080,13 @@
     </row>
     <row r="155" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>665</v>
+        <v>179</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>660</v>
+        <v>167</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>661</v>
+        <v>180</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>64</v>
@@ -5115,13 +5097,13 @@
     </row>
     <row r="156" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>666</v>
+        <v>644</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>660</v>
+        <v>645</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>661</v>
+        <v>646</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>64</v>
@@ -5132,13 +5114,13 @@
     </row>
     <row r="157" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>667</v>
+        <v>647</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>64</v>
@@ -5149,13 +5131,13 @@
     </row>
     <row r="158" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>668</v>
+        <v>650</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>64</v>
@@ -5166,13 +5148,13 @@
     </row>
     <row r="159" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>64</v>
@@ -5183,13 +5165,13 @@
     </row>
     <row r="160" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>64</v>
@@ -5200,13 +5182,13 @@
     </row>
     <row r="161" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>310</v>
+        <v>659</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>311</v>
+        <v>660</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>312</v>
+        <v>661</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>64</v>
@@ -5217,13 +5199,13 @@
     </row>
     <row r="162" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>313</v>
+        <v>662</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>311</v>
+        <v>660</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>314</v>
+        <v>661</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>64</v>
@@ -5234,13 +5216,13 @@
     </row>
     <row r="163" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>64</v>
@@ -5251,13 +5233,13 @@
     </row>
     <row r="164" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>181</v>
+        <v>664</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>182</v>
+        <v>660</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>183</v>
+        <v>661</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>64</v>
@@ -5268,13 +5250,13 @@
     </row>
     <row r="165" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>184</v>
+        <v>665</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>185</v>
+        <v>660</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>186</v>
+        <v>661</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>64</v>
@@ -5284,17 +5266,17 @@
       </c>
     </row>
     <row r="166" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A166" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>21</v>
+      <c r="A166" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>9</v>
@@ -5302,50 +5284,50 @@
     </row>
     <row r="167" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>101</v>
+        <v>667</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>102</v>
+        <v>660</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>103</v>
+        <v>661</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A168" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>104</v>
+      <c r="A168" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A169" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C169" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D169" s="4" t="s">
-        <v>104</v>
+      <c r="A169" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>9</v>
@@ -5353,33 +5335,33 @@
     </row>
     <row r="170" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>584</v>
+        <v>670</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>585</v>
+        <v>660</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>586</v>
+        <v>661</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A171" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C171" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D171" s="4" t="s">
-        <v>104</v>
+      <c r="A171" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>9</v>
@@ -5387,67 +5369,67 @@
     </row>
     <row r="172" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>193</v>
+        <v>313</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>194</v>
+        <v>311</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>195</v>
+        <v>314</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A173" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="D173" s="4" t="s">
-        <v>104</v>
+      <c r="A173" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>104</v>
+      <c r="A174" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A175" s="4" t="s">
-        <v>674</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>675</v>
-      </c>
-      <c r="C175" s="4" t="s">
-        <v>676</v>
-      </c>
-      <c r="D175" s="4" t="s">
-        <v>104</v>
+      <c r="A175" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>9</v>
@@ -5455,83 +5437,83 @@
     </row>
     <row r="176" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="D176" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D177" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E176" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A177" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="D177" s="4" t="s">
+      <c r="E177" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E177" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A178" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="C178" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="D178" s="4" t="s">
+      <c r="E178" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A179" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D179" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E178" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="E179" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A180" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D180" s="2" t="s">
+      <c r="A180" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="D180" s="4" t="s">
         <v>104</v>
       </c>
       <c r="E180" s="3" t="s">
@@ -5540,13 +5522,13 @@
     </row>
     <row r="181" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>104</v>
@@ -5557,13 +5539,13 @@
     </row>
     <row r="182" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>407</v>
+        <v>193</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>408</v>
+        <v>194</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>409</v>
+        <v>195</v>
       </c>
       <c r="D182" s="4" t="s">
         <v>104</v>
@@ -5573,16 +5555,16 @@
       </c>
     </row>
     <row r="183" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="D183" s="2" t="s">
+      <c r="A183" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="D183" s="4" t="s">
         <v>104</v>
       </c>
       <c r="E183" s="3" t="s">
@@ -5591,13 +5573,13 @@
     </row>
     <row r="184" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>315</v>
+        <v>404</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>316</v>
+        <v>405</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>317</v>
+        <v>406</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>104</v>
@@ -5608,13 +5590,13 @@
     </row>
     <row r="185" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>318</v>
+        <v>674</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>319</v>
+        <v>675</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>320</v>
+        <v>676</v>
       </c>
       <c r="D185" s="4" t="s">
         <v>104</v>
@@ -5624,16 +5606,16 @@
       </c>
     </row>
     <row r="186" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A186" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="C186" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="D186" s="4" t="s">
+      <c r="A186" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E186" s="3" t="s">
@@ -5641,16 +5623,16 @@
       </c>
     </row>
     <row r="187" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D187" s="2" t="s">
+      <c r="A187" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="D187" s="4" t="s">
         <v>104</v>
       </c>
       <c r="E187" s="3" t="s">
@@ -5659,13 +5641,13 @@
     </row>
     <row r="188" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>324</v>
+        <v>578</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>325</v>
+        <v>579</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>326</v>
+        <v>580</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>104</v>
@@ -5676,50 +5658,50 @@
     </row>
     <row r="189" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>327</v>
+        <v>581</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>328</v>
+        <v>582</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>329</v>
+        <v>583</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>330</v>
+        <v>104</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A190" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="B190" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="C190" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="D190" s="4" t="s">
-        <v>330</v>
+      <c r="A190" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E190" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A191" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>330</v>
+      <c r="A191" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>9</v>
@@ -5727,16 +5709,16 @@
     </row>
     <row r="192" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>353</v>
+        <v>407</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>354</v>
+        <v>408</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>355</v>
+        <v>409</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>330</v>
+        <v>104</v>
       </c>
       <c r="E192" s="3" t="s">
         <v>9</v>
@@ -5744,50 +5726,50 @@
     </row>
     <row r="193" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>356</v>
+        <v>471</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>357</v>
+        <v>472</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>358</v>
+        <v>473</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>330</v>
+        <v>104</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A194" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="B194" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="C194" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="D194" s="4" t="s">
-        <v>330</v>
+      <c r="A194" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E194" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>330</v>
+      <c r="A195" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>9</v>
@@ -5795,16 +5777,16 @@
     </row>
     <row r="196" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>365</v>
+        <v>474</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>366</v>
+        <v>475</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>367</v>
+        <v>476</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>330</v>
+        <v>104</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>9</v>
@@ -5812,132 +5794,135 @@
     </row>
     <row r="197" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>368</v>
+        <v>321</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>369</v>
+        <v>322</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>370</v>
+        <v>323</v>
       </c>
       <c r="D197" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A198" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D199" s="2" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A198" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="E198" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A199" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B199" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C199" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D199" s="4" t="s">
-        <v>202</v>
-      </c>
       <c r="E199" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A200" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B200" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>202</v>
+      <c r="A200" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>330</v>
       </c>
       <c r="E200" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A201" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="B201" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="C201" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="D201" s="4" t="s">
-        <v>202</v>
+      <c r="A201" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A202" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>400</v>
+      <c r="A202" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>330</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A203" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="B203" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="C203" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="D203" s="4" t="s">
-        <v>202</v>
+      <c r="A203" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A204" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>202</v>
+      <c r="A204" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>330</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>9</v>
@@ -5945,16 +5930,16 @@
     </row>
     <row r="205" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>477</v>
+        <v>362</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>478</v>
+        <v>363</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>479</v>
+        <v>364</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>202</v>
+        <v>330</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>9</v>
@@ -5962,16 +5947,16 @@
     </row>
     <row r="206" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>480</v>
+        <v>365</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>481</v>
+        <v>366</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>482</v>
+        <v>367</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>202</v>
+        <v>330</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>9</v>
@@ -5979,135 +5964,132 @@
     </row>
     <row r="207" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="E207" s="3" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A208" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="B208" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="C208" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="D208" s="4" t="s">
-        <v>337</v>
+      <c r="A208" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>680</v>
       </c>
       <c r="E208" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>337</v>
+      <c r="A209" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="E209" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A210" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B210" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C210" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="D210" s="4" t="s">
-        <v>337</v>
+      <c r="A210" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="E210" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>117</v>
+      <c r="A211" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="E211" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A212" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="B212" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="C212" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="D212" s="4" t="s">
-        <v>117</v>
+      <c r="A212" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>400</v>
       </c>
       <c r="E212" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A213" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>117</v>
+      <c r="A213" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="E213" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A214" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="B214" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="D214" s="4" t="s">
-        <v>117</v>
+      <c r="A214" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="E214" s="3" t="s">
         <v>9</v>
@@ -6115,16 +6097,16 @@
     </row>
     <row r="215" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>416</v>
+        <v>477</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>417</v>
+        <v>478</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>373</v>
+        <v>479</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>117</v>
+        <v>202</v>
       </c>
       <c r="E215" s="3" t="s">
         <v>9</v>
@@ -6132,16 +6114,16 @@
     </row>
     <row r="216" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>418</v>
+        <v>480</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>419</v>
+        <v>481</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>373</v>
+        <v>482</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>117</v>
+        <v>202</v>
       </c>
       <c r="E216" s="3" t="s">
         <v>9</v>
@@ -6149,16 +6131,16 @@
     </row>
     <row r="217" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>420</v>
+        <v>334</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>421</v>
+        <v>335</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>117</v>
+        <v>337</v>
       </c>
       <c r="E217" s="3" t="s">
         <v>9</v>
@@ -6166,16 +6148,16 @@
     </row>
     <row r="218" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
-        <v>422</v>
+        <v>338</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>423</v>
+        <v>339</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>117</v>
+        <v>337</v>
       </c>
       <c r="E218" s="3" t="s">
         <v>9</v>
@@ -6183,33 +6165,33 @@
     </row>
     <row r="219" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>424</v>
+        <v>341</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>425</v>
+        <v>342</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>373</v>
+        <v>343</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>117</v>
+        <v>337</v>
       </c>
       <c r="E219" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A220" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>117</v>
+      <c r="A220" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>337</v>
       </c>
       <c r="E220" s="3" t="s">
         <v>9</v>
@@ -6217,13 +6199,13 @@
     </row>
     <row r="221" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>426</v>
+        <v>240</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>427</v>
+        <v>241</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>373</v>
+        <v>242</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>117</v>
@@ -6234,10 +6216,10 @@
     </row>
     <row r="222" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>373</v>
@@ -6251,10 +6233,10 @@
     </row>
     <row r="223" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>373</v>
@@ -6268,10 +6250,10 @@
     </row>
     <row r="224" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>373</v>
@@ -6285,10 +6267,10 @@
     </row>
     <row r="225" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>373</v>
@@ -6302,10 +6284,10 @@
     </row>
     <row r="226" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>373</v>
@@ -6319,10 +6301,10 @@
     </row>
     <row r="227" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>373</v>
@@ -6336,10 +6318,10 @@
     </row>
     <row r="228" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>373</v>
@@ -6353,10 +6335,10 @@
     </row>
     <row r="229" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>373</v>
@@ -6369,16 +6351,16 @@
       </c>
     </row>
     <row r="230" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A230" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="B230" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="C230" s="4" t="s">
+      <c r="A230" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C230" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D230" s="4" t="s">
+      <c r="D230" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E230" s="3" t="s">
@@ -6387,10 +6369,10 @@
     </row>
     <row r="231" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>373</v>
@@ -6404,10 +6386,10 @@
     </row>
     <row r="232" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>373</v>
@@ -6420,16 +6402,16 @@
       </c>
     </row>
     <row r="233" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A233" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="B233" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C233" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="D233" s="4" t="s">
+      <c r="A233" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D233" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E233" s="3" t="s">
@@ -6437,16 +6419,16 @@
       </c>
     </row>
     <row r="234" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A234" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B234" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D234" s="2" t="s">
+      <c r="A234" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="D234" s="4" t="s">
         <v>117</v>
       </c>
       <c r="E234" s="3" t="s">
@@ -6454,16 +6436,16 @@
       </c>
     </row>
     <row r="235" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A235" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="B235" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="C235" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D235" s="4" t="s">
+      <c r="A235" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D235" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E235" s="3" t="s">
@@ -6471,16 +6453,16 @@
       </c>
     </row>
     <row r="236" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A236" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B236" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D236" s="2" t="s">
+      <c r="A236" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="D236" s="4" t="s">
         <v>117</v>
       </c>
       <c r="E236" s="3" t="s">
@@ -6489,13 +6471,13 @@
     </row>
     <row r="237" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B237" s="6" t="s">
-        <v>115</v>
+        <v>438</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>439</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>116</v>
+        <v>373</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>117</v>
@@ -6506,13 +6488,13 @@
     </row>
     <row r="238" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
-        <v>537</v>
+        <v>440</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>538</v>
+        <v>441</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>539</v>
+        <v>373</v>
       </c>
       <c r="D238" s="4" t="s">
         <v>117</v>
@@ -6522,168 +6504,338 @@
       </c>
     </row>
     <row r="239" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A239" s="4" t="s">
+      <c r="A239" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A240" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="D240" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A242" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="D242" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A243" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D243" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B244" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A245" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D245" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B246" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B247" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A248" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="D248" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A249" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B239" s="4" t="s">
+      <c r="B249" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C239" s="4" t="s">
+      <c r="C249" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D239" s="4" t="s">
+      <c r="D249" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E239" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A240" s="2" t="s">
+      <c r="E249" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="B250" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="C240" s="2" t="s">
+      <c r="C250" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="D240" s="2" t="s">
+      <c r="D250" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E240" s="3" t="s">
+      <c r="E250" s="3" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E240">
-    <sortCondition ref="A1:A240"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E250">
+    <sortCondition ref="A1:A250"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="E31" r:id="rId1" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{24CC4A6E-C1A3-4F45-AAFE-27886BAD5096}"/>
-    <hyperlink ref="E37" r:id="rId2" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{CC5F5927-A7C1-3741-B5AD-82E1643F9F62}"/>
-    <hyperlink ref="E57" r:id="rId3" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{4BFB1EEE-EACB-A142-9750-3365FC13FEE2}"/>
-    <hyperlink ref="E67" r:id="rId4" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{AA5C7361-E80E-6F45-8CA7-CC6B0646D1DF}"/>
-    <hyperlink ref="E68" r:id="rId5" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{0CBE76BA-C92D-124E-87D7-678E12652504}"/>
-    <hyperlink ref="E69" r:id="rId6" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{6035B7AE-DC56-8F48-8079-73ABA8F7F0EC}"/>
-    <hyperlink ref="E70" r:id="rId7" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{81B14BFF-880D-044C-B32F-B6B9D6B92FC4}"/>
-    <hyperlink ref="E71" r:id="rId8" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E7FE4AF2-FBBF-9547-B407-B902FF9A9D81}"/>
-    <hyperlink ref="E72" r:id="rId9" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{7285A237-DC5A-3F4D-AC6F-BD414CE70C9D}"/>
-    <hyperlink ref="E73" r:id="rId10" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A4EC6E33-4626-5849-AF4E-5C2E526E8561}"/>
-    <hyperlink ref="E74" r:id="rId11" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A17F1007-ABC7-C941-B45B-5995897C9981}"/>
-    <hyperlink ref="E75" r:id="rId12" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{4639824F-26B0-844D-88C3-7F6E9ED9AB91}"/>
-    <hyperlink ref="E76" r:id="rId13" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E994D7A9-32E6-4044-9987-8E4E4F002081}"/>
-    <hyperlink ref="E77" r:id="rId14" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{CEDA8D1E-DEFF-434F-9D55-EFE92F591438}"/>
-    <hyperlink ref="E82" r:id="rId15" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{10C69E42-BD41-9D4E-8B15-99AA464B340F}"/>
-    <hyperlink ref="E97" r:id="rId16" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{8F0E985B-9ED6-9744-8FC8-790CAB04DB55}"/>
-    <hyperlink ref="E110" r:id="rId17" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E520B9FC-47BB-BF40-BD1A-64C4AE9C2B2E}"/>
-    <hyperlink ref="E126" r:id="rId18" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{55A39355-81D5-F143-B8C9-89747BF9E120}"/>
-    <hyperlink ref="E127" r:id="rId19" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{66628BA9-D888-8642-A14F-E15DE7185CA4}"/>
-    <hyperlink ref="E128" r:id="rId20" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{D0ECE446-7D64-AD40-AA55-C1BCAB8754B4}"/>
-    <hyperlink ref="E129" r:id="rId21" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{64B6BD39-6603-414E-8BFF-A199012D4F6A}"/>
-    <hyperlink ref="E130" r:id="rId22" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{F6C85138-31D2-6348-94C6-491AF418059C}"/>
-    <hyperlink ref="E131" r:id="rId23" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{DED1C7B1-C2FB-2146-8027-D90C9B5C2AF8}"/>
-    <hyperlink ref="E132" r:id="rId24" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{44D1B243-A77A-C244-BACC-C568496755CC}"/>
-    <hyperlink ref="E133" r:id="rId25" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{18599D07-31FF-9542-8C01-4DB8F32E68DC}"/>
-    <hyperlink ref="E134" r:id="rId26" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{F1580D5F-09C2-054D-9B33-5093CB409BD4}"/>
-    <hyperlink ref="E135" r:id="rId27" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{B8E47ECF-8A1C-084C-81AC-C7CFD07EC0B7}"/>
-    <hyperlink ref="E136" r:id="rId28" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{B7833C66-5904-7643-891B-49649B356C07}"/>
-    <hyperlink ref="E137" r:id="rId29" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{CE6E0BD3-A1C8-044B-B973-BF867F86CA2C}"/>
-    <hyperlink ref="E138" r:id="rId30" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{D14AE692-581A-1E4B-89F6-C11A118EC178}"/>
-    <hyperlink ref="E167" r:id="rId31" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{6988B352-824D-5847-8406-29DC812C5C16}"/>
-    <hyperlink ref="E171" r:id="rId32" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{9F1D6EEE-EBB4-CB41-B28B-E2B4E624CF7B}"/>
-    <hyperlink ref="E180" r:id="rId33" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A4D8DC59-CF03-AB46-B228-36CA85A4DF0B}"/>
-    <hyperlink ref="E181" r:id="rId34" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{037C5D27-29A9-1F42-A75A-456E2B4A0621}"/>
-    <hyperlink ref="E237" r:id="rId35" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A37982D1-074F-3544-A2DE-E4157C4F780E}"/>
-    <hyperlink ref="E239" r:id="rId36" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{BB5FACC7-CD2C-FE45-B4DD-D91E11E81D83}"/>
+    <hyperlink ref="E38" r:id="rId2" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{CC5F5927-A7C1-3741-B5AD-82E1643F9F62}"/>
+    <hyperlink ref="E67" r:id="rId3" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{4BFB1EEE-EACB-A142-9750-3365FC13FEE2}"/>
+    <hyperlink ref="E77" r:id="rId4" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{AA5C7361-E80E-6F45-8CA7-CC6B0646D1DF}"/>
+    <hyperlink ref="E78" r:id="rId5" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{0CBE76BA-C92D-124E-87D7-678E12652504}"/>
+    <hyperlink ref="E79" r:id="rId6" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{6035B7AE-DC56-8F48-8079-73ABA8F7F0EC}"/>
+    <hyperlink ref="E80" r:id="rId7" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{81B14BFF-880D-044C-B32F-B6B9D6B92FC4}"/>
+    <hyperlink ref="E81" r:id="rId8" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E7FE4AF2-FBBF-9547-B407-B902FF9A9D81}"/>
+    <hyperlink ref="E82" r:id="rId9" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{7285A237-DC5A-3F4D-AC6F-BD414CE70C9D}"/>
+    <hyperlink ref="E83" r:id="rId10" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A4EC6E33-4626-5849-AF4E-5C2E526E8561}"/>
+    <hyperlink ref="E84" r:id="rId11" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A17F1007-ABC7-C941-B45B-5995897C9981}"/>
+    <hyperlink ref="E85" r:id="rId12" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{4639824F-26B0-844D-88C3-7F6E9ED9AB91}"/>
+    <hyperlink ref="E86" r:id="rId13" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E994D7A9-32E6-4044-9987-8E4E4F002081}"/>
+    <hyperlink ref="E87" r:id="rId14" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{CEDA8D1E-DEFF-434F-9D55-EFE92F591438}"/>
+    <hyperlink ref="E92" r:id="rId15" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{10C69E42-BD41-9D4E-8B15-99AA464B340F}"/>
+    <hyperlink ref="E107" r:id="rId16" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{8F0E985B-9ED6-9744-8FC8-790CAB04DB55}"/>
+    <hyperlink ref="E120" r:id="rId17" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E520B9FC-47BB-BF40-BD1A-64C4AE9C2B2E}"/>
+    <hyperlink ref="E136" r:id="rId18" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{55A39355-81D5-F143-B8C9-89747BF9E120}"/>
+    <hyperlink ref="E137" r:id="rId19" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{66628BA9-D888-8642-A14F-E15DE7185CA4}"/>
+    <hyperlink ref="E138" r:id="rId20" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{D0ECE446-7D64-AD40-AA55-C1BCAB8754B4}"/>
+    <hyperlink ref="E139" r:id="rId21" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{64B6BD39-6603-414E-8BFF-A199012D4F6A}"/>
+    <hyperlink ref="E140" r:id="rId22" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{F6C85138-31D2-6348-94C6-491AF418059C}"/>
+    <hyperlink ref="E141" r:id="rId23" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{DED1C7B1-C2FB-2146-8027-D90C9B5C2AF8}"/>
+    <hyperlink ref="E142" r:id="rId24" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{44D1B243-A77A-C244-BACC-C568496755CC}"/>
+    <hyperlink ref="E143" r:id="rId25" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{18599D07-31FF-9542-8C01-4DB8F32E68DC}"/>
+    <hyperlink ref="E144" r:id="rId26" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{F1580D5F-09C2-054D-9B33-5093CB409BD4}"/>
+    <hyperlink ref="E145" r:id="rId27" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{B8E47ECF-8A1C-084C-81AC-C7CFD07EC0B7}"/>
+    <hyperlink ref="E146" r:id="rId28" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{B7833C66-5904-7643-891B-49649B356C07}"/>
+    <hyperlink ref="E147" r:id="rId29" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{CE6E0BD3-A1C8-044B-B973-BF867F86CA2C}"/>
+    <hyperlink ref="E148" r:id="rId30" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{D14AE692-581A-1E4B-89F6-C11A118EC178}"/>
+    <hyperlink ref="E177" r:id="rId31" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{6988B352-824D-5847-8406-29DC812C5C16}"/>
+    <hyperlink ref="E181" r:id="rId32" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{9F1D6EEE-EBB4-CB41-B28B-E2B4E624CF7B}"/>
+    <hyperlink ref="E190" r:id="rId33" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A4D8DC59-CF03-AB46-B228-36CA85A4DF0B}"/>
+    <hyperlink ref="E191" r:id="rId34" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{037C5D27-29A9-1F42-A75A-456E2B4A0621}"/>
+    <hyperlink ref="E247" r:id="rId35" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A37982D1-074F-3544-A2DE-E4157C4F780E}"/>
+    <hyperlink ref="E249" r:id="rId36" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{BB5FACC7-CD2C-FE45-B4DD-D91E11E81D83}"/>
     <hyperlink ref="E16" r:id="rId37" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{00ED37B5-8506-3245-861A-CA1C1AC3558F}"/>
     <hyperlink ref="E23" r:id="rId38" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{D06C9844-319D-AF4B-B624-86E49DFDD56F}"/>
-    <hyperlink ref="E38" r:id="rId39" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{8F963160-E885-F24F-983B-F758D5E01390}"/>
-    <hyperlink ref="E43" r:id="rId40" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E2FEE45C-6C13-544E-8672-760AF7C7E020}"/>
-    <hyperlink ref="E47" r:id="rId41" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{C3A3A2B6-71BD-5A44-A4B6-2A3D84648B83}"/>
-    <hyperlink ref="E51" r:id="rId42" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{512CF369-3C9C-EE4E-9862-C38ECA3C156B}"/>
-    <hyperlink ref="E54" r:id="rId43" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{7DB732D8-9B46-6241-8043-A3D495DE2F77}"/>
-    <hyperlink ref="E78" r:id="rId44" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{366CAAEE-9710-7C48-9005-5CEC1F5E2457}"/>
-    <hyperlink ref="E79" r:id="rId45" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A95A3B5C-E418-F94D-A64C-9258D1124837}"/>
-    <hyperlink ref="E80" r:id="rId46" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{9D09F818-61C8-DC49-9F21-34A99B55B865}"/>
-    <hyperlink ref="E84" r:id="rId47" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{22BFAB59-6C09-B549-8E8C-86D66EA96504}"/>
-    <hyperlink ref="E118" r:id="rId48" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{5F0B925E-5FF8-8342-A085-58A41144E176}"/>
-    <hyperlink ref="E119" r:id="rId49" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{8FF51399-A809-4A45-9959-100D55878F76}"/>
-    <hyperlink ref="E120" r:id="rId50" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{2805BE9F-60B8-7842-9D2D-D0C377856689}"/>
-    <hyperlink ref="E121" r:id="rId51" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{62E23F42-328C-2242-BB24-C1A7F13426CE}"/>
-    <hyperlink ref="E122" r:id="rId52" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A52C7599-397F-F84B-B0C3-2D572D2EEAF0}"/>
-    <hyperlink ref="E139" r:id="rId53" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{231E0892-B8F6-E24E-B826-111026D8FFF8}"/>
-    <hyperlink ref="E140" r:id="rId54" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{BA523B54-FB35-4C4A-853B-958548DA1114}"/>
-    <hyperlink ref="E141" r:id="rId55" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{472BF315-F4FD-3044-8750-A6FEF3C4C4FD}"/>
-    <hyperlink ref="E142" r:id="rId56" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{D89167B3-23C7-B24F-9507-A6B1731A8B3F}"/>
-    <hyperlink ref="E143" r:id="rId57" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{AC1991FA-3781-0B4F-8B6E-FDFAF5BC8167}"/>
-    <hyperlink ref="E144" r:id="rId58" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{600AF58A-8A0E-6344-A310-004EEE0A9C20}"/>
-    <hyperlink ref="E145" r:id="rId59" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{194BF519-0C53-2E4C-9D07-38CBF02510E8}"/>
-    <hyperlink ref="E164" r:id="rId60" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A9E59886-BBF9-BA41-A657-1FB819B20162}"/>
-    <hyperlink ref="E165" r:id="rId61" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A01D83E6-F03C-2049-B4AE-BCBA02417920}"/>
-    <hyperlink ref="E168" r:id="rId62" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{2127131E-0E60-D444-9BF7-121C71784F90}"/>
-    <hyperlink ref="E169" r:id="rId63" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{DC2C6057-D434-114F-AAB2-70EDD8C27B4D}"/>
-    <hyperlink ref="E172" r:id="rId64" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{F043C4C2-6056-884F-BBAD-2AF0C512A4A7}"/>
-    <hyperlink ref="E176" r:id="rId65" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E315EA33-0BBE-594A-A340-3FE2E4D30A47}"/>
-    <hyperlink ref="E199" r:id="rId66" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{83056031-4ADF-1549-9CF7-182CB5A31DD5}"/>
-    <hyperlink ref="E200" r:id="rId67" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{06CC5F0A-286F-6C48-82A3-C1C3FB2BFE59}"/>
+    <hyperlink ref="E39" r:id="rId39" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{8F963160-E885-F24F-983B-F758D5E01390}"/>
+    <hyperlink ref="E47" r:id="rId40" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E2FEE45C-6C13-544E-8672-760AF7C7E020}"/>
+    <hyperlink ref="E53" r:id="rId41" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{C3A3A2B6-71BD-5A44-A4B6-2A3D84648B83}"/>
+    <hyperlink ref="E59" r:id="rId42" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{512CF369-3C9C-EE4E-9862-C38ECA3C156B}"/>
+    <hyperlink ref="E64" r:id="rId43" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{7DB732D8-9B46-6241-8043-A3D495DE2F77}"/>
+    <hyperlink ref="E88" r:id="rId44" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{366CAAEE-9710-7C48-9005-5CEC1F5E2457}"/>
+    <hyperlink ref="E89" r:id="rId45" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A95A3B5C-E418-F94D-A64C-9258D1124837}"/>
+    <hyperlink ref="E90" r:id="rId46" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{9D09F818-61C8-DC49-9F21-34A99B55B865}"/>
+    <hyperlink ref="E94" r:id="rId47" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{22BFAB59-6C09-B549-8E8C-86D66EA96504}"/>
+    <hyperlink ref="E128" r:id="rId48" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{5F0B925E-5FF8-8342-A085-58A41144E176}"/>
+    <hyperlink ref="E129" r:id="rId49" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{8FF51399-A809-4A45-9959-100D55878F76}"/>
+    <hyperlink ref="E130" r:id="rId50" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{2805BE9F-60B8-7842-9D2D-D0C377856689}"/>
+    <hyperlink ref="E131" r:id="rId51" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{62E23F42-328C-2242-BB24-C1A7F13426CE}"/>
+    <hyperlink ref="E132" r:id="rId52" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A52C7599-397F-F84B-B0C3-2D572D2EEAF0}"/>
+    <hyperlink ref="E149" r:id="rId53" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{231E0892-B8F6-E24E-B826-111026D8FFF8}"/>
+    <hyperlink ref="E150" r:id="rId54" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{BA523B54-FB35-4C4A-853B-958548DA1114}"/>
+    <hyperlink ref="E151" r:id="rId55" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{472BF315-F4FD-3044-8750-A6FEF3C4C4FD}"/>
+    <hyperlink ref="E152" r:id="rId56" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{D89167B3-23C7-B24F-9507-A6B1731A8B3F}"/>
+    <hyperlink ref="E153" r:id="rId57" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{AC1991FA-3781-0B4F-8B6E-FDFAF5BC8167}"/>
+    <hyperlink ref="E154" r:id="rId58" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{600AF58A-8A0E-6344-A310-004EEE0A9C20}"/>
+    <hyperlink ref="E155" r:id="rId59" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{194BF519-0C53-2E4C-9D07-38CBF02510E8}"/>
+    <hyperlink ref="E174" r:id="rId60" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A9E59886-BBF9-BA41-A657-1FB819B20162}"/>
+    <hyperlink ref="E175" r:id="rId61" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A01D83E6-F03C-2049-B4AE-BCBA02417920}"/>
+    <hyperlink ref="E178" r:id="rId62" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{2127131E-0E60-D444-9BF7-121C71784F90}"/>
+    <hyperlink ref="E179" r:id="rId63" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{DC2C6057-D434-114F-AAB2-70EDD8C27B4D}"/>
+    <hyperlink ref="E182" r:id="rId64" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{F043C4C2-6056-884F-BBAD-2AF0C512A4A7}"/>
+    <hyperlink ref="E186" r:id="rId65" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E315EA33-0BBE-594A-A340-3FE2E4D30A47}"/>
+    <hyperlink ref="E209" r:id="rId66" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{83056031-4ADF-1549-9CF7-182CB5A31DD5}"/>
+    <hyperlink ref="E210" r:id="rId67" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{06CC5F0A-286F-6C48-82A3-C1C3FB2BFE59}"/>
     <hyperlink ref="E2" r:id="rId68" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{AA8ECBE2-B91F-E743-814A-7080AEF94A85}"/>
     <hyperlink ref="E3" r:id="rId69" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{3F7D9A7E-623F-094F-AD50-B6911114695A}"/>
     <hyperlink ref="E4" r:id="rId70" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{C5AE9D72-0C3D-9C48-A5FA-6DFC357E78B7}"/>
     <hyperlink ref="E5" r:id="rId71" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{8EF9F744-812B-6E4D-B9A0-CA6424FDC2DE}"/>
     <hyperlink ref="E6" r:id="rId72" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{55C8383D-4574-DA42-9457-AE73DF1469C6}"/>
-    <hyperlink ref="E166" r:id="rId73" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{52AC5BAF-942F-524C-98CB-602FCAC65F04}"/>
-    <hyperlink ref="E115" r:id="rId74" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{2ACF044A-391F-2B44-BD07-D6E7374CB4D6}"/>
-    <hyperlink ref="E116" r:id="rId75" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{F655B2DA-15F6-B943-B9A7-70853845711F}"/>
-    <hyperlink ref="E117" r:id="rId76" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A74188D1-560C-754B-A33A-F0B37342A2FE}"/>
+    <hyperlink ref="E176" r:id="rId73" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{52AC5BAF-942F-524C-98CB-602FCAC65F04}"/>
+    <hyperlink ref="E125" r:id="rId74" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{2ACF044A-391F-2B44-BD07-D6E7374CB4D6}"/>
+    <hyperlink ref="E126" r:id="rId75" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{F655B2DA-15F6-B943-B9A7-70853845711F}"/>
+    <hyperlink ref="E127" r:id="rId76" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A74188D1-560C-754B-A33A-F0B37342A2FE}"/>
     <hyperlink ref="E28" r:id="rId77" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{34CC8DD3-845E-E945-A8DC-70CEB7F561E8}"/>
     <hyperlink ref="E29" r:id="rId78" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{BE2B65FC-A70E-424B-9349-DCC583379E4E}"/>
     <hyperlink ref="E30" r:id="rId79" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{56E63E2C-1E6D-D745-A49C-CC99AC45788F}"/>
-    <hyperlink ref="E211" r:id="rId80" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{FF5CE431-F948-1F47-AC6F-4AAAA26A8F6E}"/>
-    <hyperlink ref="E233" r:id="rId81" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{F0B92C39-D7F8-7D49-9A31-E4041D7F7075}"/>
-    <hyperlink ref="E234" r:id="rId82" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{727BBB3D-6969-6140-9A61-BBCF85DD09F6}"/>
-    <hyperlink ref="E235" r:id="rId83" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{7796FCA0-8533-9540-8CEE-05530571B096}"/>
-    <hyperlink ref="E236" r:id="rId84" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{84696AFE-FDFD-FC4E-93AA-7CF329BB8682}"/>
-    <hyperlink ref="E99" r:id="rId85" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{C0077839-E429-CD47-94E5-23CDCD32B2AC}"/>
-    <hyperlink ref="E100" r:id="rId86" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{25DECC82-3563-594F-9825-EA10351776F3}"/>
-    <hyperlink ref="E101" r:id="rId87" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{38874DF8-8866-4344-90E8-B6E90746A228}"/>
-    <hyperlink ref="E40" r:id="rId88" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{4406DBDC-6713-534A-8665-820AC31DD303}"/>
-    <hyperlink ref="E41" r:id="rId89" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{4C47A605-D65C-B747-8525-E361070AC0F5}"/>
-    <hyperlink ref="E44" r:id="rId90" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{466609A5-0103-134B-871F-08A343A089DA}"/>
-    <hyperlink ref="E45" r:id="rId91" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{0D092183-BA2F-0441-998C-2AE7A00FCEB9}"/>
-    <hyperlink ref="E48" r:id="rId92" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{93CEAED2-8202-F147-A67C-A0562E7F75DA}"/>
-    <hyperlink ref="E49" r:id="rId93" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{6DD12103-63A4-BB4B-B14F-5F488B4C4E81}"/>
-    <hyperlink ref="E52" r:id="rId94" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{13BFE71A-5D43-DF48-BA50-E96C70835201}"/>
-    <hyperlink ref="E53" r:id="rId95" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E002DC9E-6FAD-044C-8C85-A0C1A562114F}"/>
-    <hyperlink ref="E55" r:id="rId96" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{F732F726-7B73-B24B-8432-4A8C8944D646}"/>
-    <hyperlink ref="E56" r:id="rId97" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{EF06A30D-16E6-5E43-940C-3E275F0832C3}"/>
-    <hyperlink ref="E203" r:id="rId98" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{B92281CF-5EFC-0F42-9401-EAC8C567AF8E}"/>
-    <hyperlink ref="E204" r:id="rId99" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{00725E9A-B192-2345-A1F7-1B553BD6EC25}"/>
+    <hyperlink ref="E221" r:id="rId80" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{FF5CE431-F948-1F47-AC6F-4AAAA26A8F6E}"/>
+    <hyperlink ref="E243" r:id="rId81" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{F0B92C39-D7F8-7D49-9A31-E4041D7F7075}"/>
+    <hyperlink ref="E244" r:id="rId82" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{727BBB3D-6969-6140-9A61-BBCF85DD09F6}"/>
+    <hyperlink ref="E245" r:id="rId83" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{7796FCA0-8533-9540-8CEE-05530571B096}"/>
+    <hyperlink ref="E246" r:id="rId84" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{84696AFE-FDFD-FC4E-93AA-7CF329BB8682}"/>
+    <hyperlink ref="E109" r:id="rId85" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{C0077839-E429-CD47-94E5-23CDCD32B2AC}"/>
+    <hyperlink ref="E110" r:id="rId86" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{25DECC82-3563-594F-9825-EA10351776F3}"/>
+    <hyperlink ref="E111" r:id="rId87" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{38874DF8-8866-4344-90E8-B6E90746A228}"/>
+    <hyperlink ref="E42" r:id="rId88" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{4406DBDC-6713-534A-8665-820AC31DD303}"/>
+    <hyperlink ref="E43" r:id="rId89" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{4C47A605-D65C-B747-8525-E361070AC0F5}"/>
+    <hyperlink ref="E48" r:id="rId90" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{466609A5-0103-134B-871F-08A343A089DA}"/>
+    <hyperlink ref="E49" r:id="rId91" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{0D092183-BA2F-0441-998C-2AE7A00FCEB9}"/>
+    <hyperlink ref="E54" r:id="rId92" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{93CEAED2-8202-F147-A67C-A0562E7F75DA}"/>
+    <hyperlink ref="E55" r:id="rId93" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{6DD12103-63A4-BB4B-B14F-5F488B4C4E81}"/>
+    <hyperlink ref="E60" r:id="rId94" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{13BFE71A-5D43-DF48-BA50-E96C70835201}"/>
+    <hyperlink ref="E61" r:id="rId95" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E002DC9E-6FAD-044C-8C85-A0C1A562114F}"/>
+    <hyperlink ref="E65" r:id="rId96" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{F732F726-7B73-B24B-8432-4A8C8944D646}"/>
+    <hyperlink ref="E66" r:id="rId97" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{EF06A30D-16E6-5E43-940C-3E275F0832C3}"/>
+    <hyperlink ref="E213" r:id="rId98" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{B92281CF-5EFC-0F42-9401-EAC8C567AF8E}"/>
+    <hyperlink ref="E214" r:id="rId99" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{00725E9A-B192-2345-A1F7-1B553BD6EC25}"/>
     <hyperlink ref="E32" r:id="rId100" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{995D7427-6707-6245-B5C3-1AD58991D468}"/>
-    <hyperlink ref="E39" r:id="rId101" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{79108975-A280-4241-A06E-523FF1FA634A}"/>
-    <hyperlink ref="E111" r:id="rId102" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{2FE443F8-A444-7F4A-AFC0-AF128B4BF0A5}"/>
-    <hyperlink ref="E113" r:id="rId103" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{460026C8-DB11-484C-B9E7-B5D5EB5C3D11}"/>
-    <hyperlink ref="E114" r:id="rId104" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{5763A7C2-7278-C940-B3D3-71CCAACF77CF}"/>
-    <hyperlink ref="E161" r:id="rId105" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{FB59877C-8ACF-0341-BA24-B25C2E214354}"/>
-    <hyperlink ref="E162" r:id="rId106" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{0B88168B-B9E0-B54D-8F33-BF8415AE81AE}"/>
-    <hyperlink ref="E184" r:id="rId107" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{6709FBA5-8A48-F849-956B-59889466B176}"/>
-    <hyperlink ref="E185" r:id="rId108" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{53B5B381-94E8-1743-A954-3AF441A740E4}"/>
-    <hyperlink ref="E187" r:id="rId109" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{9E22593F-A5B9-F442-982C-4DC5936790B7}"/>
-    <hyperlink ref="E188" r:id="rId110" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{96B18842-E6B9-734D-9FD9-8493C018273E}"/>
-    <hyperlink ref="E189" r:id="rId111" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A13AEA93-C1EC-554F-BFBB-539D2AFF757F}"/>
-    <hyperlink ref="E201" r:id="rId112" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A0146B30-E98A-BA4B-8ECD-922687BC291B}"/>
-    <hyperlink ref="E207" r:id="rId113" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{B221975F-6E46-814A-86B0-67BE1B671FF7}"/>
-    <hyperlink ref="E208" r:id="rId114" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{1CF15151-7A17-1D4C-B72E-064019F38D37}"/>
-    <hyperlink ref="E209" r:id="rId115" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{00448650-CF82-954A-8E45-C09E8384E857}"/>
-    <hyperlink ref="E210" r:id="rId116" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{CB12C76D-143E-0146-893F-3BEBE9A081BA}"/>
-    <hyperlink ref="E190" r:id="rId117" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{B99815CE-844D-9B47-994B-B1F220F6B651}"/>
-    <hyperlink ref="E191" r:id="rId118" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{6CA2ADAB-6CA8-E941-9030-741A3F1D2BE3}"/>
-    <hyperlink ref="E192" r:id="rId119" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E467CD03-3C54-A740-95D4-922560755325}"/>
-    <hyperlink ref="E193" r:id="rId120" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{2B72F682-9060-A34B-9171-D75EB3E4B08B}"/>
-    <hyperlink ref="E194" r:id="rId121" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{308AA6A0-259B-DC4D-B562-CF0E74CEF2A7}"/>
-    <hyperlink ref="E195" r:id="rId122" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{BD70EB95-A1BF-5643-B270-4B973F4733ED}"/>
-    <hyperlink ref="E196" r:id="rId123" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{7C4E07C6-64F6-C644-952C-DCDB2D38B53B}"/>
-    <hyperlink ref="E220" r:id="rId124" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{FBE0ED11-37A9-F24E-A3AD-6DAE1DBF73AA}"/>
+    <hyperlink ref="E41" r:id="rId101" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{79108975-A280-4241-A06E-523FF1FA634A}"/>
+    <hyperlink ref="E121" r:id="rId102" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{2FE443F8-A444-7F4A-AFC0-AF128B4BF0A5}"/>
+    <hyperlink ref="E123" r:id="rId103" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{460026C8-DB11-484C-B9E7-B5D5EB5C3D11}"/>
+    <hyperlink ref="E124" r:id="rId104" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{5763A7C2-7278-C940-B3D3-71CCAACF77CF}"/>
+    <hyperlink ref="E171" r:id="rId105" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{FB59877C-8ACF-0341-BA24-B25C2E214354}"/>
+    <hyperlink ref="E172" r:id="rId106" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{0B88168B-B9E0-B54D-8F33-BF8415AE81AE}"/>
+    <hyperlink ref="E194" r:id="rId107" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{6709FBA5-8A48-F849-956B-59889466B176}"/>
+    <hyperlink ref="E195" r:id="rId108" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{53B5B381-94E8-1743-A954-3AF441A740E4}"/>
+    <hyperlink ref="E197" r:id="rId109" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{9E22593F-A5B9-F442-982C-4DC5936790B7}"/>
+    <hyperlink ref="E198" r:id="rId110" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{96B18842-E6B9-734D-9FD9-8493C018273E}"/>
+    <hyperlink ref="E199" r:id="rId111" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A13AEA93-C1EC-554F-BFBB-539D2AFF757F}"/>
+    <hyperlink ref="E211" r:id="rId112" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A0146B30-E98A-BA4B-8ECD-922687BC291B}"/>
+    <hyperlink ref="E217" r:id="rId113" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{B221975F-6E46-814A-86B0-67BE1B671FF7}"/>
+    <hyperlink ref="E218" r:id="rId114" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{1CF15151-7A17-1D4C-B72E-064019F38D37}"/>
+    <hyperlink ref="E219" r:id="rId115" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{00448650-CF82-954A-8E45-C09E8384E857}"/>
+    <hyperlink ref="E220" r:id="rId116" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{CB12C76D-143E-0146-893F-3BEBE9A081BA}"/>
+    <hyperlink ref="E200" r:id="rId117" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{B99815CE-844D-9B47-994B-B1F220F6B651}"/>
+    <hyperlink ref="E201" r:id="rId118" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{6CA2ADAB-6CA8-E941-9030-741A3F1D2BE3}"/>
+    <hyperlink ref="E202" r:id="rId119" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E467CD03-3C54-A740-95D4-922560755325}"/>
+    <hyperlink ref="E203" r:id="rId120" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{2B72F682-9060-A34B-9171-D75EB3E4B08B}"/>
+    <hyperlink ref="E204" r:id="rId121" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{308AA6A0-259B-DC4D-B562-CF0E74CEF2A7}"/>
+    <hyperlink ref="E205" r:id="rId122" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{BD70EB95-A1BF-5643-B270-4B973F4733ED}"/>
+    <hyperlink ref="E206" r:id="rId123" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{7C4E07C6-64F6-C644-952C-DCDB2D38B53B}"/>
+    <hyperlink ref="E230" r:id="rId124" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{FBE0ED11-37A9-F24E-A3AD-6DAE1DBF73AA}"/>
     <hyperlink ref="E11" r:id="rId125" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{B0EAF00B-82F2-9B4A-9F23-E7BD8B9BF4FE}"/>
     <hyperlink ref="E12" r:id="rId126" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{99D1E2CA-624B-F741-BA68-8E0035FBDBB1}"/>
     <hyperlink ref="E13" r:id="rId127" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{0DCDA8D8-8365-2B47-AB59-D99C04B6F8FF}"/>
@@ -6692,41 +6844,41 @@
     <hyperlink ref="E20" r:id="rId130" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{2C09B0A3-785F-9D40-9E95-73A4CC33CD39}"/>
     <hyperlink ref="E21" r:id="rId131" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{B07AE4CD-065B-014F-945D-8C22F7C2B34B}"/>
     <hyperlink ref="E22" r:id="rId132" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{9D5263FA-A745-E249-81E1-A3A1EBFA986D}"/>
-    <hyperlink ref="E202" r:id="rId133" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{0121E6C6-B31D-AA49-ABEC-D673E7E48B1B}"/>
-    <hyperlink ref="E173" r:id="rId134" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{FC23F497-A709-4445-9117-79C4E2CA5870}"/>
-    <hyperlink ref="E174" r:id="rId135" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{1EC669BC-4EBF-5246-9D84-1805D4725B42}"/>
-    <hyperlink ref="E182" r:id="rId136" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{15891C3A-C11A-0F41-8E29-6F431B21D373}"/>
-    <hyperlink ref="E212" r:id="rId137" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{DBD87EA5-32BB-3B4B-8EBE-E9DABBF12E02}"/>
-    <hyperlink ref="E213" r:id="rId138" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{88DDC8F6-7EC3-7344-99BA-1BC707A35133}"/>
-    <hyperlink ref="E214" r:id="rId139" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{B37BCC93-28CA-5F4E-AD10-020665ACC9CB}"/>
-    <hyperlink ref="E215" r:id="rId140" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{3D0FD5F1-1DF6-DC4E-800E-D4B7D3C20C55}"/>
-    <hyperlink ref="E216" r:id="rId141" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{2895D787-FFEC-4D4E-B559-D6B6476A0904}"/>
-    <hyperlink ref="E217" r:id="rId142" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{34B81369-2649-0342-A57B-D79C4969A781}"/>
-    <hyperlink ref="E218" r:id="rId143" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{4D0CD62D-B215-1B41-838C-7150843EB0CF}"/>
-    <hyperlink ref="E219" r:id="rId144" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{B787123D-F369-6249-9D04-871D2498C6BC}"/>
-    <hyperlink ref="E221" r:id="rId145" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{991EFC9D-A3AE-7445-ABB1-86622FA98160}"/>
-    <hyperlink ref="E222" r:id="rId146" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{F5821AA8-9700-0041-933B-CA3CF22D378B}"/>
-    <hyperlink ref="E223" r:id="rId147" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{FE5E5ABF-D6BF-6248-A974-27D14E7ABB5D}"/>
-    <hyperlink ref="E224" r:id="rId148" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E11F50B2-4312-AA46-9154-614F6F7BD2BD}"/>
-    <hyperlink ref="E225" r:id="rId149" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{F7DB455D-154B-3B43-B38E-D367E97AD46F}"/>
-    <hyperlink ref="E226" r:id="rId150" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{6D58D3C4-159C-B04E-B96E-79C7934A30C7}"/>
-    <hyperlink ref="E227" r:id="rId151" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{AEF83A8B-7A4A-4145-8078-B73F2D15F52B}"/>
-    <hyperlink ref="E228" r:id="rId152" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{09E646E3-A506-C041-8935-2707B438D43F}"/>
-    <hyperlink ref="E229" r:id="rId153" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{FAEA1E62-4805-644E-B6D0-8E88A13D77E4}"/>
-    <hyperlink ref="E230" r:id="rId154" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{FCE9CA4C-05F0-E64D-9554-5EB5A38DB92F}"/>
-    <hyperlink ref="E231" r:id="rId155" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E49DD170-A34C-7A48-830A-9C203361A255}"/>
-    <hyperlink ref="E232" r:id="rId156" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{BE6A7F0C-171E-8C44-A6B0-34FB60CA3D6E}"/>
-    <hyperlink ref="E240" r:id="rId157" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{64E8B809-AEC1-8D42-AC50-9F96967E21F4}"/>
+    <hyperlink ref="E212" r:id="rId133" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{0121E6C6-B31D-AA49-ABEC-D673E7E48B1B}"/>
+    <hyperlink ref="E183" r:id="rId134" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{FC23F497-A709-4445-9117-79C4E2CA5870}"/>
+    <hyperlink ref="E184" r:id="rId135" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{1EC669BC-4EBF-5246-9D84-1805D4725B42}"/>
+    <hyperlink ref="E192" r:id="rId136" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{15891C3A-C11A-0F41-8E29-6F431B21D373}"/>
+    <hyperlink ref="E222" r:id="rId137" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{DBD87EA5-32BB-3B4B-8EBE-E9DABBF12E02}"/>
+    <hyperlink ref="E223" r:id="rId138" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{88DDC8F6-7EC3-7344-99BA-1BC707A35133}"/>
+    <hyperlink ref="E224" r:id="rId139" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{B37BCC93-28CA-5F4E-AD10-020665ACC9CB}"/>
+    <hyperlink ref="E225" r:id="rId140" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{3D0FD5F1-1DF6-DC4E-800E-D4B7D3C20C55}"/>
+    <hyperlink ref="E226" r:id="rId141" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{2895D787-FFEC-4D4E-B559-D6B6476A0904}"/>
+    <hyperlink ref="E227" r:id="rId142" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{34B81369-2649-0342-A57B-D79C4969A781}"/>
+    <hyperlink ref="E228" r:id="rId143" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{4D0CD62D-B215-1B41-838C-7150843EB0CF}"/>
+    <hyperlink ref="E229" r:id="rId144" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{B787123D-F369-6249-9D04-871D2498C6BC}"/>
+    <hyperlink ref="E231" r:id="rId145" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{991EFC9D-A3AE-7445-ABB1-86622FA98160}"/>
+    <hyperlink ref="E232" r:id="rId146" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{F5821AA8-9700-0041-933B-CA3CF22D378B}"/>
+    <hyperlink ref="E233" r:id="rId147" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{FE5E5ABF-D6BF-6248-A974-27D14E7ABB5D}"/>
+    <hyperlink ref="E234" r:id="rId148" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E11F50B2-4312-AA46-9154-614F6F7BD2BD}"/>
+    <hyperlink ref="E235" r:id="rId149" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{F7DB455D-154B-3B43-B38E-D367E97AD46F}"/>
+    <hyperlink ref="E236" r:id="rId150" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{6D58D3C4-159C-B04E-B96E-79C7934A30C7}"/>
+    <hyperlink ref="E237" r:id="rId151" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{AEF83A8B-7A4A-4145-8078-B73F2D15F52B}"/>
+    <hyperlink ref="E238" r:id="rId152" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{09E646E3-A506-C041-8935-2707B438D43F}"/>
+    <hyperlink ref="E239" r:id="rId153" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{FAEA1E62-4805-644E-B6D0-8E88A13D77E4}"/>
+    <hyperlink ref="E240" r:id="rId154" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{FCE9CA4C-05F0-E64D-9554-5EB5A38DB92F}"/>
+    <hyperlink ref="E241" r:id="rId155" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E49DD170-A34C-7A48-830A-9C203361A255}"/>
+    <hyperlink ref="E242" r:id="rId156" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{BE6A7F0C-171E-8C44-A6B0-34FB60CA3D6E}"/>
+    <hyperlink ref="E250" r:id="rId157" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{64E8B809-AEC1-8D42-AC50-9F96967E21F4}"/>
     <hyperlink ref="E9" r:id="rId158" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{CEE37C82-91E1-454B-8ABF-14117D6E79CF}"/>
     <hyperlink ref="E10" r:id="rId159" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{9E3FD569-211D-3B41-BD91-E778346B2239}"/>
-    <hyperlink ref="E36" r:id="rId160" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{73F81832-F7F9-B841-94A7-4E82C134B1AA}"/>
-    <hyperlink ref="E42" r:id="rId161" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{46D7C559-A62C-CC46-997C-9DA34915568B}"/>
-    <hyperlink ref="E46" r:id="rId162" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E1CCB456-CCA0-BB4E-8E09-6E6E49443114}"/>
-    <hyperlink ref="E50" r:id="rId163" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{3320AC2A-990B-BA4D-B0CF-B9FAC9E84481}"/>
-    <hyperlink ref="E183" r:id="rId164" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{3D50377E-4D4E-F84E-A635-11DA7FB87AF1}"/>
-    <hyperlink ref="E186" r:id="rId165" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{54B4ADA0-350C-1A42-A1A2-9E2FAE263262}"/>
-    <hyperlink ref="E205" r:id="rId166" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{B9AC6AC1-BB20-344B-AB3D-875D0659914B}"/>
-    <hyperlink ref="E206" r:id="rId167" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{ABDC7858-0EB1-9E4A-BCF6-1483EC52EAC0}"/>
+    <hyperlink ref="E37" r:id="rId160" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{73F81832-F7F9-B841-94A7-4E82C134B1AA}"/>
+    <hyperlink ref="E46" r:id="rId161" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{46D7C559-A62C-CC46-997C-9DA34915568B}"/>
+    <hyperlink ref="E52" r:id="rId162" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E1CCB456-CCA0-BB4E-8E09-6E6E49443114}"/>
+    <hyperlink ref="E58" r:id="rId163" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{3320AC2A-990B-BA4D-B0CF-B9FAC9E84481}"/>
+    <hyperlink ref="E193" r:id="rId164" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{3D50377E-4D4E-F84E-A635-11DA7FB87AF1}"/>
+    <hyperlink ref="E196" r:id="rId165" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{54B4ADA0-350C-1A42-A1A2-9E2FAE263262}"/>
+    <hyperlink ref="E215" r:id="rId166" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{B9AC6AC1-BB20-344B-AB3D-875D0659914B}"/>
+    <hyperlink ref="E216" r:id="rId167" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{ABDC7858-0EB1-9E4A-BCF6-1483EC52EAC0}"/>
     <hyperlink ref="E7" r:id="rId168" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{D0B799D4-926E-D449-95F2-B6CCCDAA2FD4}"/>
     <hyperlink ref="E8" r:id="rId169" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{14AB014D-D7B3-FF48-9829-351CE22ECC01}"/>
     <hyperlink ref="E17" r:id="rId170" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{54505237-79F9-5E44-B826-79A935EE98C8}"/>
@@ -6735,69 +6887,69 @@
     <hyperlink ref="E25" r:id="rId173" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{CB82AC35-2382-054E-A744-DB46322451A8}"/>
     <hyperlink ref="E26" r:id="rId174" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{0B8F80EC-F2FE-6547-998D-AEA9F5DF3C8B}"/>
     <hyperlink ref="E27" r:id="rId175" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{2D7FFE13-951D-7F48-9393-EEB25B6FC272}"/>
-    <hyperlink ref="E60" r:id="rId176" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{40C809C1-9818-9046-BEA4-9C3CD07C5F1F}"/>
-    <hyperlink ref="E62" r:id="rId177" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{6F083D95-DBE8-7C48-98C6-24AD66F2538B}"/>
-    <hyperlink ref="E102" r:id="rId178" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{7F96FDAD-EA69-1440-8169-AF3268A4E339}"/>
-    <hyperlink ref="E109" r:id="rId179" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{F9251548-DE61-E44A-AEE3-488673D91710}"/>
-    <hyperlink ref="E112" r:id="rId180" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{5CCC02C1-621C-584D-B212-613947EA7001}"/>
-    <hyperlink ref="E123" r:id="rId181" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{6B3891C9-7B79-3C4B-A397-93936D6E394B}"/>
-    <hyperlink ref="E124" r:id="rId182" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{26511542-000A-3E4B-9557-61AEEDEFAAE9}"/>
-    <hyperlink ref="E125" r:id="rId183" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Examination&amp;Cycle=2017-2018" xr:uid="{463482A5-3E7B-974B-BC61-7934C4726926}"/>
-    <hyperlink ref="E238" r:id="rId184" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{631746AE-4F9D-584E-8A42-999F81576AB5}"/>
-    <hyperlink ref="E63" r:id="rId185" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Laboratory&amp;Cycle=2017-2018" xr:uid="{DE1718FC-819B-4342-8DB5-4FCA1B7DA05C}"/>
-    <hyperlink ref="E64" r:id="rId186" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Laboratory&amp;Cycle=2017-2018" xr:uid="{02A12673-27FA-FA4A-A172-327291E16B11}"/>
-    <hyperlink ref="E65" r:id="rId187" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Laboratory&amp;Cycle=2017-2018" xr:uid="{9AEB8038-5541-2B49-B9F2-EB2309C3DE99}"/>
-    <hyperlink ref="E66" r:id="rId188" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Laboratory&amp;Cycle=2017-2018" xr:uid="{FE389977-1F58-4648-8BA5-8771CE96804F}"/>
-    <hyperlink ref="E61" r:id="rId189" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{02484634-DD5B-294C-8378-19BA40436293}"/>
-    <hyperlink ref="E58" r:id="rId190" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{C012C4CE-5FAE-A344-9017-2F832405EDAA}"/>
-    <hyperlink ref="E59" r:id="rId191" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A0D6485F-5A79-F647-B0CE-FB6B55EBA71F}"/>
-    <hyperlink ref="E93" r:id="rId192" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A0A5E168-853A-CD4D-903B-F4619E24EB8F}"/>
-    <hyperlink ref="E103" r:id="rId193" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{6E78AD06-B676-5642-8A4C-CF1BCBA4E7FD}"/>
-    <hyperlink ref="E104" r:id="rId194" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{C54358B0-067B-5642-AE31-9051213ADA3F}"/>
-    <hyperlink ref="E105" r:id="rId195" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{D445B1B1-BCFE-9345-9821-A0217C4E06E1}"/>
-    <hyperlink ref="E106" r:id="rId196" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{97C70484-6D81-AF4E-BC22-EA2C92BA1D3B}"/>
-    <hyperlink ref="E107" r:id="rId197" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{71A1F62F-60C7-054C-B900-3EC71C5F6EF4}"/>
-    <hyperlink ref="E177" r:id="rId198" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{1EF15C54-591A-D64C-AB23-20AFF54B1054}"/>
-    <hyperlink ref="E178" r:id="rId199" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{2CDB2633-BDF5-F943-A6F7-975357B0A23B}"/>
-    <hyperlink ref="E179" r:id="rId200" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{72F99A8C-8602-3043-AD27-774DB81C45B1}"/>
-    <hyperlink ref="E170" r:id="rId201" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E17E047E-FEEE-B943-AD89-F7A1210E1894}"/>
+    <hyperlink ref="E70" r:id="rId176" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{40C809C1-9818-9046-BEA4-9C3CD07C5F1F}"/>
+    <hyperlink ref="E72" r:id="rId177" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{6F083D95-DBE8-7C48-98C6-24AD66F2538B}"/>
+    <hyperlink ref="E112" r:id="rId178" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{7F96FDAD-EA69-1440-8169-AF3268A4E339}"/>
+    <hyperlink ref="E119" r:id="rId179" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{F9251548-DE61-E44A-AEE3-488673D91710}"/>
+    <hyperlink ref="E122" r:id="rId180" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{5CCC02C1-621C-584D-B212-613947EA7001}"/>
+    <hyperlink ref="E133" r:id="rId181" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{6B3891C9-7B79-3C4B-A397-93936D6E394B}"/>
+    <hyperlink ref="E134" r:id="rId182" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{26511542-000A-3E4B-9557-61AEEDEFAAE9}"/>
+    <hyperlink ref="E135" r:id="rId183" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Examination&amp;Cycle=2017-2018" xr:uid="{463482A5-3E7B-974B-BC61-7934C4726926}"/>
+    <hyperlink ref="E248" r:id="rId184" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{631746AE-4F9D-584E-8A42-999F81576AB5}"/>
+    <hyperlink ref="E73" r:id="rId185" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Laboratory&amp;Cycle=2017-2018" xr:uid="{DE1718FC-819B-4342-8DB5-4FCA1B7DA05C}"/>
+    <hyperlink ref="E74" r:id="rId186" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Laboratory&amp;Cycle=2017-2018" xr:uid="{02A12673-27FA-FA4A-A172-327291E16B11}"/>
+    <hyperlink ref="E75" r:id="rId187" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Laboratory&amp;Cycle=2017-2018" xr:uid="{9AEB8038-5541-2B49-B9F2-EB2309C3DE99}"/>
+    <hyperlink ref="E76" r:id="rId188" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Laboratory&amp;Cycle=2017-2018" xr:uid="{FE389977-1F58-4648-8BA5-8771CE96804F}"/>
+    <hyperlink ref="E71" r:id="rId189" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{02484634-DD5B-294C-8378-19BA40436293}"/>
+    <hyperlink ref="E68" r:id="rId190" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{C012C4CE-5FAE-A344-9017-2F832405EDAA}"/>
+    <hyperlink ref="E69" r:id="rId191" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A0D6485F-5A79-F647-B0CE-FB6B55EBA71F}"/>
+    <hyperlink ref="E103" r:id="rId192" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A0A5E168-853A-CD4D-903B-F4619E24EB8F}"/>
+    <hyperlink ref="E113" r:id="rId193" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{6E78AD06-B676-5642-8A4C-CF1BCBA4E7FD}"/>
+    <hyperlink ref="E114" r:id="rId194" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{C54358B0-067B-5642-AE31-9051213ADA3F}"/>
+    <hyperlink ref="E115" r:id="rId195" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{D445B1B1-BCFE-9345-9821-A0217C4E06E1}"/>
+    <hyperlink ref="E116" r:id="rId196" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{97C70484-6D81-AF4E-BC22-EA2C92BA1D3B}"/>
+    <hyperlink ref="E117" r:id="rId197" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{71A1F62F-60C7-054C-B900-3EC71C5F6EF4}"/>
+    <hyperlink ref="E187" r:id="rId198" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{1EF15C54-591A-D64C-AB23-20AFF54B1054}"/>
+    <hyperlink ref="E188" r:id="rId199" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{2CDB2633-BDF5-F943-A6F7-975357B0A23B}"/>
+    <hyperlink ref="E189" r:id="rId200" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{72F99A8C-8602-3043-AD27-774DB81C45B1}"/>
+    <hyperlink ref="E180" r:id="rId201" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E17E047E-FEEE-B943-AD89-F7A1210E1894}"/>
     <hyperlink ref="E24" r:id="rId202" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{C7B9F756-98D1-4049-AA31-88D1B76B0A8A}"/>
-    <hyperlink ref="E33" r:id="rId203" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{772DDF10-8613-044C-A341-BDF10FDD4744}"/>
-    <hyperlink ref="E34" r:id="rId204" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{498A2AF0-0D95-DD4A-B9FE-A76B4895ABC6}"/>
-    <hyperlink ref="E35" r:id="rId205" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A6893126-7FC8-1F4A-A9EF-E33CF7C64039}"/>
-    <hyperlink ref="E81" r:id="rId206" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{F96407D2-5097-7345-880A-4156BC4D3019}"/>
-    <hyperlink ref="E83" r:id="rId207" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{DCC94476-248C-8E4D-94E6-83B535EF8036}"/>
-    <hyperlink ref="E85" r:id="rId208" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{B8545992-0E79-BB41-BFE1-1C12ACC3DFBE}"/>
-    <hyperlink ref="E86" r:id="rId209" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{EAA974E6-43D3-7B48-BF61-65BE82C7B48E}"/>
-    <hyperlink ref="E87" r:id="rId210" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{2B2BD9DB-7010-544B-9939-69FAFBC8CCE5}"/>
-    <hyperlink ref="E88" r:id="rId211" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{8A2DDD84-637D-1544-B559-1583F97FF8BB}"/>
-    <hyperlink ref="E89" r:id="rId212" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{4F75A309-CD45-6C4F-BD88-817E572C7DAC}"/>
-    <hyperlink ref="E90" r:id="rId213" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{CF5F42EB-AC96-0D43-931D-4944E767FCF9}"/>
-    <hyperlink ref="E91" r:id="rId214" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E3E5B962-0308-D546-96FE-9DE6FCBF325B}"/>
-    <hyperlink ref="E92" r:id="rId215" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{1EB8FE80-95A7-604E-9219-787FB955D4BB}"/>
-    <hyperlink ref="E94" r:id="rId216" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{AA0FB1FB-9865-B144-A904-5CCDD305F0E4}"/>
-    <hyperlink ref="E95" r:id="rId217" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{090F6559-9C86-DF45-AE3E-F138A15E1FF1}"/>
-    <hyperlink ref="E96" r:id="rId218" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{0E799595-F37E-264F-BAF2-62EEAE74D26C}"/>
-    <hyperlink ref="E98" r:id="rId219" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{6159F737-A241-7243-8925-E04554C5A2B0}"/>
-    <hyperlink ref="E108" r:id="rId220" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{2F5D5B9D-5986-4145-B45B-B46A773D6099}"/>
-    <hyperlink ref="E146" r:id="rId221" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{3EB91147-F18A-294B-808C-B35C4E8FBE67}"/>
-    <hyperlink ref="E147" r:id="rId222" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{B6346CD4-337C-254D-8E3B-4EA4D821F350}"/>
-    <hyperlink ref="E148" r:id="rId223" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{1B26C5BF-8648-6543-9F47-422F8C767BA3}"/>
-    <hyperlink ref="E149" r:id="rId224" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{425D67FD-44A3-E046-B07B-FA6CA1D241A9}"/>
-    <hyperlink ref="E150" r:id="rId225" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{34E327D1-A4CF-D844-A353-ABC766D136A2}"/>
-    <hyperlink ref="E151" r:id="rId226" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{CEAAB86F-C3DA-5949-A2FE-5CB238B8EFF7}"/>
-    <hyperlink ref="E152" r:id="rId227" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{270A6C12-8319-D24D-AD9C-68B828ECF869}"/>
-    <hyperlink ref="E153" r:id="rId228" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{45170887-B839-DB4B-8C90-BC2CDE732407}"/>
-    <hyperlink ref="E154" r:id="rId229" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{4B625250-71F1-8A43-B627-45CFC6B1AF84}"/>
-    <hyperlink ref="E155" r:id="rId230" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{47595A5F-7B60-FD4C-9945-58DD9999D882}"/>
-    <hyperlink ref="E156" r:id="rId231" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E5D4DB19-5EAE-B448-9705-380EB60BF8F8}"/>
-    <hyperlink ref="E157" r:id="rId232" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A723A237-EB87-4048-B5AC-E01251794A9B}"/>
-    <hyperlink ref="E158" r:id="rId233" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{8EE75365-8208-E742-8B7E-B007784676EB}"/>
-    <hyperlink ref="E159" r:id="rId234" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A73FB736-EDDA-4048-B83D-20EA26617724}"/>
-    <hyperlink ref="E160" r:id="rId235" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A25573E3-C820-B449-958C-EFB42800FBAE}"/>
-    <hyperlink ref="E163" r:id="rId236" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{81ACBF65-9B77-A846-A546-CD317C376A2C}"/>
-    <hyperlink ref="E175" r:id="rId237" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A6EBE3F2-7F8A-CB4B-B361-1966303C178D}"/>
-    <hyperlink ref="E198" r:id="rId238" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A172B714-DAF3-6440-974F-735DC7818FF5}"/>
+    <hyperlink ref="E34" r:id="rId203" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{772DDF10-8613-044C-A341-BDF10FDD4744}"/>
+    <hyperlink ref="E35" r:id="rId204" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{498A2AF0-0D95-DD4A-B9FE-A76B4895ABC6}"/>
+    <hyperlink ref="E36" r:id="rId205" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A6893126-7FC8-1F4A-A9EF-E33CF7C64039}"/>
+    <hyperlink ref="E91" r:id="rId206" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{F96407D2-5097-7345-880A-4156BC4D3019}"/>
+    <hyperlink ref="E93" r:id="rId207" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{DCC94476-248C-8E4D-94E6-83B535EF8036}"/>
+    <hyperlink ref="E95" r:id="rId208" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{B8545992-0E79-BB41-BFE1-1C12ACC3DFBE}"/>
+    <hyperlink ref="E96" r:id="rId209" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{EAA974E6-43D3-7B48-BF61-65BE82C7B48E}"/>
+    <hyperlink ref="E97" r:id="rId210" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{2B2BD9DB-7010-544B-9939-69FAFBC8CCE5}"/>
+    <hyperlink ref="E98" r:id="rId211" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{8A2DDD84-637D-1544-B559-1583F97FF8BB}"/>
+    <hyperlink ref="E99" r:id="rId212" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{4F75A309-CD45-6C4F-BD88-817E572C7DAC}"/>
+    <hyperlink ref="E100" r:id="rId213" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{CF5F42EB-AC96-0D43-931D-4944E767FCF9}"/>
+    <hyperlink ref="E101" r:id="rId214" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E3E5B962-0308-D546-96FE-9DE6FCBF325B}"/>
+    <hyperlink ref="E102" r:id="rId215" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{1EB8FE80-95A7-604E-9219-787FB955D4BB}"/>
+    <hyperlink ref="E104" r:id="rId216" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{AA0FB1FB-9865-B144-A904-5CCDD305F0E4}"/>
+    <hyperlink ref="E105" r:id="rId217" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{090F6559-9C86-DF45-AE3E-F138A15E1FF1}"/>
+    <hyperlink ref="E106" r:id="rId218" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{0E799595-F37E-264F-BAF2-62EEAE74D26C}"/>
+    <hyperlink ref="E108" r:id="rId219" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{6159F737-A241-7243-8925-E04554C5A2B0}"/>
+    <hyperlink ref="E118" r:id="rId220" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{2F5D5B9D-5986-4145-B45B-B46A773D6099}"/>
+    <hyperlink ref="E156" r:id="rId221" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{3EB91147-F18A-294B-808C-B35C4E8FBE67}"/>
+    <hyperlink ref="E157" r:id="rId222" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{B6346CD4-337C-254D-8E3B-4EA4D821F350}"/>
+    <hyperlink ref="E158" r:id="rId223" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{1B26C5BF-8648-6543-9F47-422F8C767BA3}"/>
+    <hyperlink ref="E159" r:id="rId224" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{425D67FD-44A3-E046-B07B-FA6CA1D241A9}"/>
+    <hyperlink ref="E160" r:id="rId225" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{34E327D1-A4CF-D844-A353-ABC766D136A2}"/>
+    <hyperlink ref="E161" r:id="rId226" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{CEAAB86F-C3DA-5949-A2FE-5CB238B8EFF7}"/>
+    <hyperlink ref="E162" r:id="rId227" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{270A6C12-8319-D24D-AD9C-68B828ECF869}"/>
+    <hyperlink ref="E163" r:id="rId228" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{45170887-B839-DB4B-8C90-BC2CDE732407}"/>
+    <hyperlink ref="E164" r:id="rId229" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{4B625250-71F1-8A43-B627-45CFC6B1AF84}"/>
+    <hyperlink ref="E165" r:id="rId230" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{47595A5F-7B60-FD4C-9945-58DD9999D882}"/>
+    <hyperlink ref="E166" r:id="rId231" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E5D4DB19-5EAE-B448-9705-380EB60BF8F8}"/>
+    <hyperlink ref="E167" r:id="rId232" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A723A237-EB87-4048-B5AC-E01251794A9B}"/>
+    <hyperlink ref="E168" r:id="rId233" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{8EE75365-8208-E742-8B7E-B007784676EB}"/>
+    <hyperlink ref="E169" r:id="rId234" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A73FB736-EDDA-4048-B83D-20EA26617724}"/>
+    <hyperlink ref="E170" r:id="rId235" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A25573E3-C820-B449-958C-EFB42800FBAE}"/>
+    <hyperlink ref="E173" r:id="rId236" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{81ACBF65-9B77-A846-A546-CD317C376A2C}"/>
+    <hyperlink ref="E185" r:id="rId237" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A6EBE3F2-7F8A-CB4B-B361-1966303C178D}"/>
+    <hyperlink ref="E208" r:id="rId238" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A172B714-DAF3-6440-974F-735DC7818FF5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/history-questions.xlsx
+++ b/history-questions.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lilibeit/Documents/Flatiron/Git/phase_5/nhanes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218FA374-2DC9-004D-91FF-46D5505CE5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A74FC2-F33E-D149-9162-37C4F34AC98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="460" windowWidth="25600" windowHeight="14540" xr2:uid="{B5671264-7E19-F24F-B3D6-F0053EE97531}"/>
+    <workbookView xWindow="60" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{B5671264-7E19-F24F-B3D6-F0053EE97531}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="704">
   <si>
     <t>Variable Name</t>
   </si>
@@ -2113,6 +2113,39 @@
   </si>
   <si>
     <t>DUQ360 - # days used methamphetamine/month</t>
+  </si>
+  <si>
+    <t>not enough respondents</t>
+  </si>
+  <si>
+    <t>this data is more complete than marijuana data</t>
+  </si>
+  <si>
+    <t>MCQ035 - Still have asthma</t>
+  </si>
+  <si>
+    <t>MCQ195 - Which type of arthritis was it?</t>
+  </si>
+  <si>
+    <t>osteoarthritis is a common cause of hospitalization</t>
+  </si>
+  <si>
+    <t>MCQ170m - Do you still have thyroid problem</t>
+  </si>
+  <si>
+    <t>MCQ170l - Do you still have a liver condition</t>
+  </si>
+  <si>
+    <t>MCQ230a - 1st cancer - what kind was it?</t>
+  </si>
+  <si>
+    <t>MCQ230b - 2nd cancer - what kind was it?</t>
+  </si>
+  <si>
+    <t>CAT COL</t>
+  </si>
+  <si>
+    <t>MCQ230C - 3RD cancer - what kind was it?</t>
   </si>
 </sst>
 </file>
@@ -2167,7 +2200,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2186,6 +2219,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2200,7 +2245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2212,6 +2257,18 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2527,10 +2584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060CE42F-08E5-7240-89BE-CFFA503FCE66}">
-  <dimension ref="A1:E250"/>
+  <dimension ref="A1:J259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3083,7 +3140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="22" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>681</v>
       </c>
@@ -3094,7 +3151,7 @@
       <c r="D33" s="4"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="22" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>590</v>
       </c>
@@ -3111,7 +3168,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="22" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>593</v>
       </c>
@@ -3128,7 +3185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="22" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>596</v>
       </c>
@@ -3145,7 +3202,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="22" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>459</v>
       </c>
@@ -3162,121 +3219,145 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+    <row r="38" spans="1:10" s="13" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+      <c r="E38" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="13" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="23" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+      <c r="E39" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="13" customFormat="1" ht="23" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
         <v>684</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="14" t="s">
         <v>683</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="12"/>
+      <c r="G40" s="13" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="13" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="E41" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="13" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="E42" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="13" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="23" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
+      <c r="E43" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="13" customFormat="1" ht="23" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
         <v>685</v>
       </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="1:5" ht="23" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="12"/>
+      <c r="G44" s="13" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="13" customFormat="1" ht="23" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
         <v>686</v>
       </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="12"/>
+      <c r="G45" s="13" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="22" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>462</v>
       </c>
@@ -3293,7 +3374,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="22" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>132</v>
       </c>
@@ -3309,8 +3390,14 @@
       <c r="E47" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="G47" s="16" t="s">
+        <v>694</v>
+      </c>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+    </row>
+    <row r="48" spans="1:10" ht="22" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>269</v>
       </c>
@@ -3326,8 +3413,11 @@
       <c r="E48" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="G48" s="16" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="22" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>272</v>
       </c>
@@ -3343,8 +3433,11 @@
       <c r="E49" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="G49" s="16" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="23" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>687</v>
       </c>
@@ -3352,8 +3445,11 @@
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="3"/>
-    </row>
-    <row r="51" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="G50" s="16" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="23" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>688</v>
       </c>
@@ -3361,8 +3457,11 @@
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="3"/>
-    </row>
-    <row r="52" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="G51" s="16" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="22" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>465</v>
       </c>
@@ -3378,8 +3477,11 @@
       <c r="E52" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="G52" s="16" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="22" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>135</v>
       </c>
@@ -3395,8 +3497,11 @@
       <c r="E53" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="G53" s="16" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="22" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>274</v>
       </c>
@@ -3412,8 +3517,11 @@
       <c r="E54" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="G54" s="16" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="22" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>277</v>
       </c>
@@ -3429,8 +3537,11 @@
       <c r="E55" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="G55" s="16" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="23" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>689</v>
       </c>
@@ -3438,8 +3549,11 @@
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="3"/>
-    </row>
-    <row r="57" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="G56" s="16" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="23" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>690</v>
       </c>
@@ -3447,8 +3561,11 @@
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="G57" s="16" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="22" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>468</v>
       </c>
@@ -3464,8 +3581,11 @@
       <c r="E58" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="G58" s="16" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="22" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>138</v>
       </c>
@@ -3481,8 +3601,11 @@
       <c r="E59" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="G59" s="16" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="22" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>279</v>
       </c>
@@ -3498,8 +3621,11 @@
       <c r="E60" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="G60" s="16" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="22" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>282</v>
       </c>
@@ -3515,8 +3641,11 @@
       <c r="E61" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="G61" s="16" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="23" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>691</v>
       </c>
@@ -3524,8 +3653,11 @@
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="3"/>
-    </row>
-    <row r="63" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="G62" s="16" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="23" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>692</v>
       </c>
@@ -3533,12 +3665,15 @@
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="3"/>
-    </row>
-    <row r="64" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
+      <c r="G63" s="16" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="22" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="8" t="s">
         <v>142</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -3547,12 +3682,15 @@
       <c r="E64" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+      <c r="G64" s="16" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="22" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="8" t="s">
         <v>285</v>
       </c>
       <c r="C65" s="4" t="s">
@@ -3564,12 +3702,15 @@
       <c r="E65" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+      <c r="G65" s="16" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="22" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="7" t="s">
         <v>288</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -3581,8 +3722,11 @@
       <c r="E66" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="G66" s="16" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="22" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>14</v>
       </c>
@@ -3599,7 +3743,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="22" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>555</v>
       </c>
@@ -3616,7 +3760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="22" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>559</v>
       </c>
@@ -3633,7 +3777,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="22" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>509</v>
       </c>
@@ -3650,7 +3794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="22" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>552</v>
       </c>
@@ -3667,7 +3811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="22" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>513</v>
       </c>
@@ -3684,7 +3828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="22" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>540</v>
       </c>
@@ -3701,7 +3845,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="22" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>545</v>
       </c>
@@ -3718,7 +3862,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="22" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>548</v>
       </c>
@@ -3735,7 +3879,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="22" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>550</v>
       </c>
@@ -3752,66 +3896,53 @@
         <v>544</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+    <row r="77" spans="1:7" ht="22" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="1:7" ht="22" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B78" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C78" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D78" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E77" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+      <c r="E78" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" s="16" customFormat="1" ht="23" x14ac:dyDescent="0.25">
+      <c r="A79" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="B79" s="8"/>
+      <c r="C79" s="22" t="s">
+        <v>702</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="17"/>
+      <c r="G79" s="16" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="22" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B80" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>21</v>
@@ -3821,14 +3952,14 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>32</v>
+      <c r="A81" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>21</v>
@@ -3838,14 +3969,14 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>35</v>
+      <c r="A82" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>21</v>
@@ -3855,14 +3986,14 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>38</v>
+      <c r="A83" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>21</v>
@@ -3872,14 +4003,14 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>41</v>
+      <c r="A84" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>21</v>
@@ -3889,14 +4020,14 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>44</v>
+      <c r="A85" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>21</v>
@@ -3906,14 +4037,14 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>47</v>
+      <c r="A86" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>21</v>
@@ -3923,14 +4054,14 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>50</v>
+      <c r="A87" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>21</v>
@@ -3939,134 +4070,126 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D88" s="4" t="s">
+    <row r="88" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A88" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="B88" s="8"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" spans="1:5" s="20" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+      <c r="A89" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="B89" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="D89" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E88" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D89" s="2" t="s">
+      <c r="E89" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" s="16" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="D90" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D90" s="4" t="s">
+      <c r="E90" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" s="16" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="D91" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E90" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="D91" s="4" t="s">
+      <c r="E91" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" s="16" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+      <c r="A92" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="D92" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D92" s="2" t="s">
+      <c r="E92" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" s="16" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="D93" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E92" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="D93" s="2" t="s">
+      <c r="E93" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" s="16" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+      <c r="A94" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="D94" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E93" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E94" s="3" t="s">
+      <c r="E94" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>606</v>
+      <c r="A95" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>607</v>
+        <v>48</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>21</v>
@@ -4075,49 +4198,41 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>610</v>
-      </c>
-      <c r="D96" s="4" t="s">
+    <row r="96" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A96" s="10" t="s">
+        <v>698</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D97" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E96" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="E97" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>616</v>
+      <c r="A98" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C98" s="18" t="s">
+        <v>146</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>21</v>
@@ -4126,153 +4241,127 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="D99" s="2" t="s">
+    <row r="99" spans="1:5" s="13" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+      <c r="A99" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D99" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E99" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>622</v>
-      </c>
-      <c r="D100" s="4" t="s">
+      <c r="E99" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" s="13" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+      <c r="A100" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D100" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="D101" s="2" t="s">
+      <c r="E100" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" s="13" customFormat="1" ht="23" x14ac:dyDescent="0.25">
+      <c r="A101" s="14" t="s">
+        <v>700</v>
+      </c>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="D101" s="11"/>
+      <c r="E101" s="12"/>
+    </row>
+    <row r="102" spans="1:5" s="13" customFormat="1" ht="23" x14ac:dyDescent="0.25">
+      <c r="A102" s="14" t="s">
+        <v>701</v>
+      </c>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="D102" s="11"/>
+      <c r="E102" s="12"/>
+    </row>
+    <row r="103" spans="1:5" s="13" customFormat="1" ht="23" x14ac:dyDescent="0.25">
+      <c r="A103" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="B103" s="11"/>
+      <c r="C103" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="D103" s="11"/>
+      <c r="E103" s="12"/>
+    </row>
+    <row r="104" spans="1:5" s="20" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+      <c r="A104" s="18" t="s">
+        <v>599</v>
+      </c>
+      <c r="B104" s="18" t="s">
+        <v>600</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>601</v>
+      </c>
+      <c r="D104" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
-        <v>626</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>628</v>
-      </c>
-      <c r="D102" s="4" t="s">
+      <c r="E104" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
-        <v>629</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>631</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
-        <v>632</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>633</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="E105" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>9</v>
-      </c>
+    <row r="106" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A106" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="B106" s="16"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="3"/>
     </row>
     <row r="107" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D107" s="4" t="s">
+      <c r="A107" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E107" s="3" t="s">
@@ -4281,13 +4370,13 @@
     </row>
     <row r="108" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>638</v>
+        <v>153</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>639</v>
+        <v>154</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>640</v>
+        <v>155</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>21</v>
@@ -4296,49 +4385,49 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D109" s="2" t="s">
+    <row r="109" spans="1:5" s="20" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+      <c r="A109" s="21" t="s">
+        <v>605</v>
+      </c>
+      <c r="B109" s="21" t="s">
+        <v>606</v>
+      </c>
+      <c r="C109" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="D109" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E109" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="D110" s="4" t="s">
+      <c r="E109" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" s="20" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+      <c r="A110" s="18" t="s">
+        <v>608</v>
+      </c>
+      <c r="B110" s="18" t="s">
+        <v>609</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>610</v>
+      </c>
+      <c r="D110" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="E110" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>261</v>
+        <v>611</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>262</v>
+        <v>612</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>263</v>
+        <v>613</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>21</v>
@@ -4349,13 +4438,13 @@
     </row>
     <row r="112" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>517</v>
+        <v>614</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>518</v>
+        <v>615</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>519</v>
+        <v>616</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>21</v>
@@ -4364,15 +4453,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>564</v>
+        <v>617</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>565</v>
+        <v>618</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>566</v>
+        <v>619</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>21</v>
@@ -4381,15 +4470,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>567</v>
+        <v>620</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>568</v>
+        <v>621</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>566</v>
+        <v>622</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>21</v>
@@ -4398,49 +4487,49 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A115" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="D115" s="4" t="s">
+    <row r="115" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="D116" s="2" t="s">
+    <row r="116" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="D116" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>574</v>
+        <v>518</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>21</v>
@@ -4449,49 +4538,49 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="D118" s="2" t="s">
+    <row r="118" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="D118" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="D119" s="2" t="s">
+    <row r="119" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="D119" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>58</v>
+        <v>635</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>59</v>
+        <v>636</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>60</v>
+        <v>637</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>21</v>
@@ -4500,171 +4589,162 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="s">
+    <row r="121" spans="1:6" s="16" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+      <c r="A121" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E121" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" s="16" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+      <c r="A123" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E123" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" s="16" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+      <c r="A124" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E124" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" s="16" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+      <c r="A125" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E125" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A128" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E128" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" s="16"/>
+    </row>
+    <row r="129" spans="1:5" s="20" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+      <c r="A129" s="21"/>
+      <c r="B129" s="21"/>
+      <c r="C129" s="21"/>
+      <c r="D129" s="21"/>
+      <c r="E129" s="19"/>
+    </row>
+    <row r="130" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B130" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C130" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="D121" s="4" t="s">
+      <c r="D130" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A122" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A124" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A125" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A126" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A129" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>9</v>
@@ -4672,16 +4752,16 @@
     </row>
     <row r="131" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>164</v>
+        <v>523</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>162</v>
+        <v>524</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>163</v>
+        <v>525</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>159</v>
+        <v>303</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>9</v>
@@ -4689,32 +4769,32 @@
     </row>
     <row r="132" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>165</v>
+        <v>304</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>162</v>
+        <v>305</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>163</v>
+        <v>306</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>159</v>
+        <v>303</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="D133" s="2" t="s">
+      <c r="A133" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D133" s="4" t="s">
         <v>159</v>
       </c>
       <c r="E133" s="3" t="s">
@@ -4723,13 +4803,13 @@
     </row>
     <row r="134" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>529</v>
+        <v>225</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>530</v>
+        <v>223</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>531</v>
+        <v>224</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>159</v>
@@ -4739,34 +4819,34 @@
       </c>
     </row>
     <row r="135" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>535</v>
+      <c r="A135" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>536</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>61</v>
+        <v>229</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>62</v>
+        <v>227</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>63</v>
+        <v>228</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>9</v>
@@ -4774,16 +4854,16 @@
     </row>
     <row r="137" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>66</v>
+        <v>157</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>67</v>
+        <v>158</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>9</v>
@@ -4791,16 +4871,16 @@
     </row>
     <row r="138" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>68</v>
+        <v>160</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>69</v>
+        <v>157</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>9</v>
@@ -4808,16 +4888,16 @@
     </row>
     <row r="139" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>9</v>
@@ -4825,16 +4905,16 @@
     </row>
     <row r="140" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>9</v>
@@ -4842,593 +4922,593 @@
     </row>
     <row r="141" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A149" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B150" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C150" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D141" s="2" t="s">
+      <c r="D150" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E141" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A142" s="4" t="s">
+      <c r="E150" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B151" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="C151" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D142" s="4" t="s">
+      <c r="D151" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E142" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
+      <c r="E151" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B152" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C152" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D143" s="2" t="s">
+      <c r="D152" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E143" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A144" s="4" t="s">
+      <c r="E152" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A153" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="B153" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="C153" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D144" s="4" t="s">
+      <c r="D153" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E144" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
+      <c r="E153" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B154" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C154" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D145" s="2" t="s">
+      <c r="D154" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E145" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A146" s="4" t="s">
+      <c r="E154" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="B155" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C146" s="4" t="s">
+      <c r="C155" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D146" s="4" t="s">
+      <c r="D155" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E146" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
+      <c r="E155" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B156" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C156" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D147" s="2" t="s">
+      <c r="D156" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E147" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A148" s="4" t="s">
+      <c r="E156" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A157" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B148" s="4" t="s">
+      <c r="B157" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="C157" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D148" s="4" t="s">
+      <c r="D157" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E148" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
+      <c r="E157" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B158" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C158" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D149" s="2" t="s">
+      <c r="D158" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E149" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A150" s="4" t="s">
+      <c r="E158" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A159" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="B159" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C150" s="4" t="s">
+      <c r="C159" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D150" s="4" t="s">
+      <c r="D159" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E150" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
+      <c r="E159" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B160" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C160" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D151" s="2" t="s">
+      <c r="D160" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E151" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A152" s="4" t="s">
+      <c r="E160" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A161" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="B161" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C152" s="4" t="s">
+      <c r="C161" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D152" s="4" t="s">
+      <c r="D161" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E152" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
+      <c r="E161" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B162" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C162" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D153" s="2" t="s">
+      <c r="D162" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E153" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A154" s="4" t="s">
+      <c r="E162" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="B163" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C154" s="4" t="s">
+      <c r="C163" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D154" s="4" t="s">
+      <c r="D163" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E154" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
+      <c r="E163" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B164" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C164" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D155" s="2" t="s">
+      <c r="D164" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E155" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A156" s="4" t="s">
+      <c r="E164" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A165" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="B156" s="4" t="s">
+      <c r="B165" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="C156" s="4" t="s">
+      <c r="C165" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="D156" s="4" t="s">
+      <c r="D165" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E156" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
+      <c r="E165" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B166" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C166" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="D157" s="2" t="s">
+      <c r="D166" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E157" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A158" s="4" t="s">
+      <c r="E166" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="B158" s="4" t="s">
+      <c r="B167" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="C158" s="4" t="s">
+      <c r="C167" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="D158" s="4" t="s">
+      <c r="D167" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E158" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
+      <c r="E167" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B168" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C168" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="D159" s="2" t="s">
+      <c r="D168" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E159" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A160" s="4" t="s">
+      <c r="E168" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="B169" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="C160" s="4" t="s">
+      <c r="C169" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="D160" s="4" t="s">
+      <c r="D169" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E160" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
+      <c r="E169" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B170" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C170" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="D161" s="2" t="s">
+      <c r="D170" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E161" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A162" s="4" t="s">
+      <c r="E170" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A171" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="B162" s="4" t="s">
+      <c r="B171" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="C162" s="4" t="s">
+      <c r="C171" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="D162" s="4" t="s">
+      <c r="D171" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E162" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A163" s="2" t="s">
+      <c r="E171" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B172" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C172" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="D163" s="2" t="s">
+      <c r="D172" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E163" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A164" s="4" t="s">
+      <c r="E172" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A173" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="B164" s="4" t="s">
+      <c r="B173" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="C164" s="4" t="s">
+      <c r="C173" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="D164" s="4" t="s">
+      <c r="D173" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E164" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A165" s="2" t="s">
+      <c r="E173" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B174" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C174" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="D165" s="2" t="s">
+      <c r="D174" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E165" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A166" s="4" t="s">
+      <c r="E174" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="B166" s="4" t="s">
+      <c r="B175" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="C166" s="4" t="s">
+      <c r="C175" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="D166" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A167" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A168" s="4" t="s">
-        <v>668</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="D168" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E168" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A169" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E169" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A170" s="4" t="s">
-        <v>670</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="C170" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="D170" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E171" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A172" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C172" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="D172" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E173" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C174" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D174" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E174" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D175" s="2" t="s">
+      <c r="D175" s="4" t="s">
         <v>64</v>
       </c>
       <c r="E175" s="3" t="s">
@@ -5437,33 +5517,33 @@
     </row>
     <row r="176" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>220</v>
+        <v>667</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>221</v>
+        <v>660</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>222</v>
+        <v>661</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A177" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>104</v>
+      <c r="A177" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>9</v>
@@ -5471,16 +5551,16 @@
     </row>
     <row r="178" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>187</v>
+        <v>669</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>188</v>
+        <v>660</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>189</v>
+        <v>661</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>9</v>
@@ -5488,33 +5568,33 @@
     </row>
     <row r="179" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>190</v>
+        <v>670</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>191</v>
+        <v>660</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>192</v>
+        <v>661</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A180" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="C180" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="D180" s="4" t="s">
-        <v>104</v>
+      <c r="A180" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>9</v>
@@ -5522,33 +5602,33 @@
     </row>
     <row r="181" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>105</v>
+        <v>313</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>106</v>
+        <v>311</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>107</v>
+        <v>314</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A182" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B182" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D182" s="4" t="s">
-        <v>104</v>
+      <c r="A182" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>9</v>
@@ -5556,16 +5636,16 @@
     </row>
     <row r="183" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>401</v>
+        <v>181</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>402</v>
+        <v>182</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>403</v>
+        <v>183</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>9</v>
@@ -5573,33 +5653,33 @@
     </row>
     <row r="184" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>404</v>
+        <v>184</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>405</v>
+        <v>185</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>406</v>
+        <v>186</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="E184" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A185" s="4" t="s">
-        <v>674</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>675</v>
-      </c>
-      <c r="C185" s="4" t="s">
-        <v>676</v>
-      </c>
-      <c r="D185" s="4" t="s">
-        <v>104</v>
+      <c r="A185" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>9</v>
@@ -5607,13 +5687,13 @@
     </row>
     <row r="186" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>196</v>
+        <v>101</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>197</v>
+        <v>102</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>198</v>
+        <v>103</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>104</v>
@@ -5623,16 +5703,16 @@
       </c>
     </row>
     <row r="187" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A187" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="D187" s="4" t="s">
+      <c r="A187" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E187" s="3" t="s">
@@ -5641,13 +5721,13 @@
     </row>
     <row r="188" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>578</v>
+        <v>190</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>579</v>
+        <v>191</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>580</v>
+        <v>192</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>104</v>
@@ -5657,16 +5737,16 @@
       </c>
     </row>
     <row r="189" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="D189" s="2" t="s">
+      <c r="A189" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="D189" s="4" t="s">
         <v>104</v>
       </c>
       <c r="E189" s="3" t="s">
@@ -5674,16 +5754,16 @@
       </c>
     </row>
     <row r="190" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A190" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D190" s="2" t="s">
+      <c r="A190" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D190" s="4" t="s">
         <v>104</v>
       </c>
       <c r="E190" s="3" t="s">
@@ -5692,13 +5772,13 @@
     </row>
     <row r="191" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>111</v>
+        <v>193</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>112</v>
+        <v>194</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>113</v>
+        <v>195</v>
       </c>
       <c r="D191" s="4" t="s">
         <v>104</v>
@@ -5709,13 +5789,13 @@
     </row>
     <row r="192" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D192" s="4" t="s">
         <v>104</v>
@@ -5726,13 +5806,13 @@
     </row>
     <row r="193" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>471</v>
+        <v>404</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>472</v>
+        <v>405</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>473</v>
+        <v>406</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>104</v>
@@ -5742,16 +5822,16 @@
       </c>
     </row>
     <row r="194" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A194" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D194" s="2" t="s">
+      <c r="A194" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="D194" s="4" t="s">
         <v>104</v>
       </c>
       <c r="E194" s="3" t="s">
@@ -5759,16 +5839,16 @@
       </c>
     </row>
     <row r="195" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A195" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="B195" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="C195" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="D195" s="4" t="s">
+      <c r="A195" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D195" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E195" s="3" t="s">
@@ -5777,13 +5857,13 @@
     </row>
     <row r="196" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>474</v>
+        <v>575</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>475</v>
+        <v>576</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>476</v>
+        <v>577</v>
       </c>
       <c r="D196" s="4" t="s">
         <v>104</v>
@@ -5793,16 +5873,16 @@
       </c>
     </row>
     <row r="197" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D197" s="2" t="s">
+      <c r="A197" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="D197" s="4" t="s">
         <v>104</v>
       </c>
       <c r="E197" s="3" t="s">
@@ -5810,16 +5890,16 @@
       </c>
     </row>
     <row r="198" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A198" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="B198" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="C198" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="D198" s="4" t="s">
+      <c r="A198" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D198" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E198" s="3" t="s">
@@ -5828,16 +5908,16 @@
     </row>
     <row r="199" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>327</v>
+        <v>108</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>328</v>
+        <v>109</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>329</v>
+        <v>110</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>330</v>
+        <v>104</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>9</v>
@@ -5845,50 +5925,50 @@
     </row>
     <row r="200" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>347</v>
+        <v>111</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>348</v>
+        <v>112</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>349</v>
+        <v>113</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>330</v>
+        <v>104</v>
       </c>
       <c r="E200" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A201" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>330</v>
+      <c r="A201" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A202" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="C202" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="D202" s="4" t="s">
-        <v>330</v>
+      <c r="A202" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>9</v>
@@ -5896,16 +5976,16 @@
     </row>
     <row r="203" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>356</v>
+        <v>315</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>357</v>
+        <v>316</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>358</v>
+        <v>317</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>330</v>
+        <v>104</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>9</v>
@@ -5913,81 +5993,84 @@
     </row>
     <row r="204" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>359</v>
+        <v>318</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>360</v>
+        <v>319</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>361</v>
+        <v>320</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>330</v>
+        <v>104</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A205" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>330</v>
+      <c r="A205" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A206" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="B206" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="C206" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="D206" s="4" t="s">
-        <v>330</v>
+      <c r="A206" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A207" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>330</v>
+      <c r="A207" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>677</v>
+        <v>327</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>678</v>
+        <v>328</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>679</v>
+        <v>329</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>680</v>
+        <v>330</v>
       </c>
       <c r="E208" s="3" t="s">
         <v>9</v>
@@ -5995,16 +6078,16 @@
     </row>
     <row r="209" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B209" s="5" t="s">
-        <v>200</v>
+        <v>347</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>348</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>201</v>
+        <v>349</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>202</v>
+        <v>330</v>
       </c>
       <c r="E209" s="3" t="s">
         <v>9</v>
@@ -6012,16 +6095,16 @@
     </row>
     <row r="210" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B210" s="6" t="s">
-        <v>204</v>
+        <v>350</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>351</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>205</v>
+        <v>352</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>202</v>
+        <v>330</v>
       </c>
       <c r="E210" s="3" t="s">
         <v>9</v>
@@ -6029,16 +6112,16 @@
     </row>
     <row r="211" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="B211" s="5" t="s">
-        <v>332</v>
+        <v>353</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>202</v>
+        <v>330</v>
       </c>
       <c r="E211" s="3" t="s">
         <v>9</v>
@@ -6046,16 +6129,16 @@
     </row>
     <row r="212" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>397</v>
+        <v>356</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>398</v>
+        <v>357</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>399</v>
+        <v>358</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="E212" s="3" t="s">
         <v>9</v>
@@ -6063,16 +6146,16 @@
     </row>
     <row r="213" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="B213" s="5" t="s">
-        <v>290</v>
+        <v>359</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>360</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>291</v>
+        <v>361</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>202</v>
+        <v>330</v>
       </c>
       <c r="E213" s="3" t="s">
         <v>9</v>
@@ -6080,67 +6163,64 @@
     </row>
     <row r="214" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>292</v>
+        <v>362</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>293</v>
+        <v>363</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>291</v>
+        <v>364</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>202</v>
+        <v>330</v>
       </c>
       <c r="E214" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A215" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>202</v>
+      <c r="A215" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>330</v>
       </c>
       <c r="E215" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A216" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="B216" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="C216" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="D216" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E216" s="3" t="s">
-        <v>9</v>
+      <c r="A216" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>334</v>
+        <v>677</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>335</v>
+        <v>678</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>336</v>
+        <v>679</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>337</v>
+        <v>680</v>
       </c>
       <c r="E217" s="3" t="s">
         <v>9</v>
@@ -6148,16 +6228,16 @@
     </row>
     <row r="218" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="B218" s="4" t="s">
-        <v>339</v>
+        <v>199</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>340</v>
+        <v>201</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>337</v>
+        <v>202</v>
       </c>
       <c r="E218" s="3" t="s">
         <v>9</v>
@@ -6165,16 +6245,16 @@
     </row>
     <row r="219" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>342</v>
+        <v>203</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>204</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>343</v>
+        <v>205</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>337</v>
+        <v>202</v>
       </c>
       <c r="E219" s="3" t="s">
         <v>9</v>
@@ -6182,16 +6262,16 @@
     </row>
     <row r="220" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B220" s="4" t="s">
-        <v>345</v>
+        <v>331</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>332</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>337</v>
+        <v>202</v>
       </c>
       <c r="E220" s="3" t="s">
         <v>9</v>
@@ -6199,16 +6279,16 @@
     </row>
     <row r="221" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>240</v>
+        <v>397</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>241</v>
+        <v>398</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>242</v>
+        <v>399</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>117</v>
+        <v>400</v>
       </c>
       <c r="E221" s="3" t="s">
         <v>9</v>
@@ -6216,16 +6296,16 @@
     </row>
     <row r="222" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="B222" s="4" t="s">
-        <v>411</v>
+        <v>289</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>290</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>373</v>
+        <v>291</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>117</v>
+        <v>202</v>
       </c>
       <c r="E222" s="3" t="s">
         <v>9</v>
@@ -6233,118 +6313,118 @@
     </row>
     <row r="223" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>412</v>
+        <v>292</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>413</v>
+        <v>293</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>373</v>
+        <v>291</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>117</v>
+        <v>202</v>
       </c>
       <c r="E223" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A224" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="B224" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="C224" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="D224" s="4" t="s">
-        <v>117</v>
+      <c r="A224" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="E224" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A225" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>117</v>
+      <c r="A225" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="E225" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A226" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="B226" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="C226" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="D226" s="4" t="s">
-        <v>117</v>
+      <c r="A226" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>337</v>
       </c>
       <c r="E226" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A227" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>117</v>
+      <c r="A227" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>337</v>
       </c>
       <c r="E227" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A228" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="B228" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="C228" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="D228" s="4" t="s">
-        <v>117</v>
+      <c r="A228" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>337</v>
       </c>
       <c r="E228" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A229" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>117</v>
+      <c r="A229" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>337</v>
       </c>
       <c r="E229" s="3" t="s">
         <v>9</v>
@@ -6352,13 +6432,13 @@
     </row>
     <row r="230" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>371</v>
+        <v>240</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>372</v>
+        <v>241</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>373</v>
+        <v>242</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>117</v>
@@ -6368,16 +6448,16 @@
       </c>
     </row>
     <row r="231" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A231" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="C231" s="2" t="s">
+      <c r="A231" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C231" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="D231" s="2" t="s">
+      <c r="D231" s="4" t="s">
         <v>117</v>
       </c>
       <c r="E231" s="3" t="s">
@@ -6385,16 +6465,16 @@
       </c>
     </row>
     <row r="232" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A232" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="B232" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="C232" s="4" t="s">
+      <c r="A232" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C232" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D232" s="4" t="s">
+      <c r="D232" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E232" s="3" t="s">
@@ -6402,16 +6482,16 @@
       </c>
     </row>
     <row r="233" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A233" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="C233" s="2" t="s">
+      <c r="A233" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C233" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="D233" s="2" t="s">
+      <c r="D233" s="4" t="s">
         <v>117</v>
       </c>
       <c r="E233" s="3" t="s">
@@ -6419,16 +6499,16 @@
       </c>
     </row>
     <row r="234" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A234" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="B234" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="C234" s="4" t="s">
+      <c r="A234" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C234" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D234" s="4" t="s">
+      <c r="D234" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E234" s="3" t="s">
@@ -6436,16 +6516,16 @@
       </c>
     </row>
     <row r="235" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A235" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="C235" s="2" t="s">
+      <c r="A235" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C235" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="D235" s="2" t="s">
+      <c r="D235" s="4" t="s">
         <v>117</v>
       </c>
       <c r="E235" s="3" t="s">
@@ -6453,16 +6533,16 @@
       </c>
     </row>
     <row r="236" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A236" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="B236" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="C236" s="4" t="s">
+      <c r="A236" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C236" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D236" s="4" t="s">
+      <c r="D236" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E236" s="3" t="s">
@@ -6470,16 +6550,16 @@
       </c>
     </row>
     <row r="237" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A237" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="C237" s="2" t="s">
+      <c r="A237" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C237" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="D237" s="2" t="s">
+      <c r="D237" s="4" t="s">
         <v>117</v>
       </c>
       <c r="E237" s="3" t="s">
@@ -6487,16 +6567,16 @@
       </c>
     </row>
     <row r="238" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A238" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="B238" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="C238" s="4" t="s">
+      <c r="A238" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C238" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D238" s="4" t="s">
+      <c r="D238" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E238" s="3" t="s">
@@ -6505,10 +6585,10 @@
     </row>
     <row r="239" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>442</v>
+        <v>371</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>443</v>
+        <v>372</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>373</v>
@@ -6521,16 +6601,16 @@
       </c>
     </row>
     <row r="240" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A240" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="B240" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="C240" s="4" t="s">
+      <c r="A240" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C240" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D240" s="4" t="s">
+      <c r="D240" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E240" s="3" t="s">
@@ -6538,16 +6618,16 @@
       </c>
     </row>
     <row r="241" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A241" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="C241" s="2" t="s">
+      <c r="A241" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C241" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="D241" s="2" t="s">
+      <c r="D241" s="4" t="s">
         <v>117</v>
       </c>
       <c r="E241" s="3" t="s">
@@ -6555,16 +6635,16 @@
       </c>
     </row>
     <row r="242" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A242" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="B242" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="C242" s="4" t="s">
+      <c r="A242" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C242" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D242" s="4" t="s">
+      <c r="D242" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E242" s="3" t="s">
@@ -6573,13 +6653,13 @@
     </row>
     <row r="243" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="B243" s="5" t="s">
-        <v>244</v>
+        <v>432</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>433</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>245</v>
+        <v>373</v>
       </c>
       <c r="D243" s="4" t="s">
         <v>117</v>
@@ -6590,13 +6670,13 @@
     </row>
     <row r="244" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B244" s="6" t="s">
-        <v>247</v>
+        <v>434</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>435</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>248</v>
+        <v>373</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>117</v>
@@ -6607,13 +6687,13 @@
     </row>
     <row r="245" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="B245" s="5" t="s">
-        <v>250</v>
+        <v>436</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>437</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>251</v>
+        <v>373</v>
       </c>
       <c r="D245" s="4" t="s">
         <v>117</v>
@@ -6624,13 +6704,13 @@
     </row>
     <row r="246" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B246" s="6" t="s">
-        <v>253</v>
+        <v>438</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>439</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>254</v>
+        <v>373</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>117</v>
@@ -6640,16 +6720,16 @@
       </c>
     </row>
     <row r="247" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A247" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B247" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D247" s="2" t="s">
+      <c r="A247" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="D247" s="4" t="s">
         <v>117</v>
       </c>
       <c r="E247" s="3" t="s">
@@ -6657,16 +6737,16 @@
       </c>
     </row>
     <row r="248" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A248" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="B248" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="C248" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="D248" s="4" t="s">
+      <c r="A248" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D248" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E248" s="3" t="s">
@@ -6675,13 +6755,13 @@
     </row>
     <row r="249" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
-        <v>118</v>
+        <v>444</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>119</v>
+        <v>445</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>120</v>
+        <v>373</v>
       </c>
       <c r="D249" s="4" t="s">
         <v>117</v>
@@ -6692,13 +6772,13 @@
     </row>
     <row r="250" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>452</v>
+        <v>373</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>117</v>
@@ -6707,47 +6787,200 @@
         <v>9</v>
       </c>
     </row>
+    <row r="251" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A251" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="D251" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A252" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D252" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B253" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A254" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D254" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A255" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B255" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A256" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B256" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A257" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="D257" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A258" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D258" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A259" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E250">
-    <sortCondition ref="A1:A250"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E259">
+    <sortCondition ref="A1:A259"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="E31" r:id="rId1" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{24CC4A6E-C1A3-4F45-AAFE-27886BAD5096}"/>
     <hyperlink ref="E38" r:id="rId2" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{CC5F5927-A7C1-3741-B5AD-82E1643F9F62}"/>
     <hyperlink ref="E67" r:id="rId3" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{4BFB1EEE-EACB-A142-9750-3365FC13FEE2}"/>
-    <hyperlink ref="E77" r:id="rId4" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{AA5C7361-E80E-6F45-8CA7-CC6B0646D1DF}"/>
-    <hyperlink ref="E78" r:id="rId5" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{0CBE76BA-C92D-124E-87D7-678E12652504}"/>
-    <hyperlink ref="E79" r:id="rId6" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{6035B7AE-DC56-8F48-8079-73ABA8F7F0EC}"/>
-    <hyperlink ref="E80" r:id="rId7" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{81B14BFF-880D-044C-B32F-B6B9D6B92FC4}"/>
-    <hyperlink ref="E81" r:id="rId8" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E7FE4AF2-FBBF-9547-B407-B902FF9A9D81}"/>
-    <hyperlink ref="E82" r:id="rId9" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{7285A237-DC5A-3F4D-AC6F-BD414CE70C9D}"/>
-    <hyperlink ref="E83" r:id="rId10" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A4EC6E33-4626-5849-AF4E-5C2E526E8561}"/>
-    <hyperlink ref="E84" r:id="rId11" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A17F1007-ABC7-C941-B45B-5995897C9981}"/>
-    <hyperlink ref="E85" r:id="rId12" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{4639824F-26B0-844D-88C3-7F6E9ED9AB91}"/>
-    <hyperlink ref="E86" r:id="rId13" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E994D7A9-32E6-4044-9987-8E4E4F002081}"/>
-    <hyperlink ref="E87" r:id="rId14" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{CEDA8D1E-DEFF-434F-9D55-EFE92F591438}"/>
-    <hyperlink ref="E92" r:id="rId15" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{10C69E42-BD41-9D4E-8B15-99AA464B340F}"/>
-    <hyperlink ref="E107" r:id="rId16" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{8F0E985B-9ED6-9744-8FC8-790CAB04DB55}"/>
-    <hyperlink ref="E120" r:id="rId17" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E520B9FC-47BB-BF40-BD1A-64C4AE9C2B2E}"/>
-    <hyperlink ref="E136" r:id="rId18" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{55A39355-81D5-F143-B8C9-89747BF9E120}"/>
-    <hyperlink ref="E137" r:id="rId19" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{66628BA9-D888-8642-A14F-E15DE7185CA4}"/>
-    <hyperlink ref="E138" r:id="rId20" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{D0ECE446-7D64-AD40-AA55-C1BCAB8754B4}"/>
-    <hyperlink ref="E139" r:id="rId21" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{64B6BD39-6603-414E-8BFF-A199012D4F6A}"/>
-    <hyperlink ref="E140" r:id="rId22" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{F6C85138-31D2-6348-94C6-491AF418059C}"/>
-    <hyperlink ref="E141" r:id="rId23" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{DED1C7B1-C2FB-2146-8027-D90C9B5C2AF8}"/>
-    <hyperlink ref="E142" r:id="rId24" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{44D1B243-A77A-C244-BACC-C568496755CC}"/>
-    <hyperlink ref="E143" r:id="rId25" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{18599D07-31FF-9542-8C01-4DB8F32E68DC}"/>
-    <hyperlink ref="E144" r:id="rId26" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{F1580D5F-09C2-054D-9B33-5093CB409BD4}"/>
-    <hyperlink ref="E145" r:id="rId27" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{B8E47ECF-8A1C-084C-81AC-C7CFD07EC0B7}"/>
-    <hyperlink ref="E146" r:id="rId28" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{B7833C66-5904-7643-891B-49649B356C07}"/>
-    <hyperlink ref="E147" r:id="rId29" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{CE6E0BD3-A1C8-044B-B973-BF867F86CA2C}"/>
-    <hyperlink ref="E148" r:id="rId30" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{D14AE692-581A-1E4B-89F6-C11A118EC178}"/>
-    <hyperlink ref="E177" r:id="rId31" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{6988B352-824D-5847-8406-29DC812C5C16}"/>
-    <hyperlink ref="E181" r:id="rId32" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{9F1D6EEE-EBB4-CB41-B28B-E2B4E624CF7B}"/>
-    <hyperlink ref="E190" r:id="rId33" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A4D8DC59-CF03-AB46-B228-36CA85A4DF0B}"/>
-    <hyperlink ref="E191" r:id="rId34" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{037C5D27-29A9-1F42-A75A-456E2B4A0621}"/>
-    <hyperlink ref="E247" r:id="rId35" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A37982D1-074F-3544-A2DE-E4157C4F780E}"/>
-    <hyperlink ref="E249" r:id="rId36" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{BB5FACC7-CD2C-FE45-B4DD-D91E11E81D83}"/>
+    <hyperlink ref="E78" r:id="rId4" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{AA5C7361-E80E-6F45-8CA7-CC6B0646D1DF}"/>
+    <hyperlink ref="E80" r:id="rId5" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{0CBE76BA-C92D-124E-87D7-678E12652504}"/>
+    <hyperlink ref="E81" r:id="rId6" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{6035B7AE-DC56-8F48-8079-73ABA8F7F0EC}"/>
+    <hyperlink ref="E82" r:id="rId7" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{81B14BFF-880D-044C-B32F-B6B9D6B92FC4}"/>
+    <hyperlink ref="E83" r:id="rId8" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E7FE4AF2-FBBF-9547-B407-B902FF9A9D81}"/>
+    <hyperlink ref="E84" r:id="rId9" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{7285A237-DC5A-3F4D-AC6F-BD414CE70C9D}"/>
+    <hyperlink ref="E85" r:id="rId10" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A4EC6E33-4626-5849-AF4E-5C2E526E8561}"/>
+    <hyperlink ref="E86" r:id="rId11" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A17F1007-ABC7-C941-B45B-5995897C9981}"/>
+    <hyperlink ref="E87" r:id="rId12" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{4639824F-26B0-844D-88C3-7F6E9ED9AB91}"/>
+    <hyperlink ref="E95" r:id="rId13" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E994D7A9-32E6-4044-9987-8E4E4F002081}"/>
+    <hyperlink ref="E97" r:id="rId14" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{CEDA8D1E-DEFF-434F-9D55-EFE92F591438}"/>
+    <hyperlink ref="E105" r:id="rId15" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{10C69E42-BD41-9D4E-8B15-99AA464B340F}"/>
+    <hyperlink ref="E121" r:id="rId16" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{8F0E985B-9ED6-9744-8FC8-790CAB04DB55}"/>
+    <hyperlink ref="E128" r:id="rId17" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E520B9FC-47BB-BF40-BD1A-64C4AE9C2B2E}"/>
+    <hyperlink ref="E145" r:id="rId18" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{55A39355-81D5-F143-B8C9-89747BF9E120}"/>
+    <hyperlink ref="E146" r:id="rId19" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{66628BA9-D888-8642-A14F-E15DE7185CA4}"/>
+    <hyperlink ref="E147" r:id="rId20" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{D0ECE446-7D64-AD40-AA55-C1BCAB8754B4}"/>
+    <hyperlink ref="E148" r:id="rId21" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{64B6BD39-6603-414E-8BFF-A199012D4F6A}"/>
+    <hyperlink ref="E149" r:id="rId22" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{F6C85138-31D2-6348-94C6-491AF418059C}"/>
+    <hyperlink ref="E150" r:id="rId23" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{DED1C7B1-C2FB-2146-8027-D90C9B5C2AF8}"/>
+    <hyperlink ref="E151" r:id="rId24" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{44D1B243-A77A-C244-BACC-C568496755CC}"/>
+    <hyperlink ref="E152" r:id="rId25" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{18599D07-31FF-9542-8C01-4DB8F32E68DC}"/>
+    <hyperlink ref="E153" r:id="rId26" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{F1580D5F-09C2-054D-9B33-5093CB409BD4}"/>
+    <hyperlink ref="E154" r:id="rId27" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{B8E47ECF-8A1C-084C-81AC-C7CFD07EC0B7}"/>
+    <hyperlink ref="E155" r:id="rId28" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{B7833C66-5904-7643-891B-49649B356C07}"/>
+    <hyperlink ref="E156" r:id="rId29" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{CE6E0BD3-A1C8-044B-B973-BF867F86CA2C}"/>
+    <hyperlink ref="E157" r:id="rId30" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{D14AE692-581A-1E4B-89F6-C11A118EC178}"/>
+    <hyperlink ref="E186" r:id="rId31" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{6988B352-824D-5847-8406-29DC812C5C16}"/>
+    <hyperlink ref="E190" r:id="rId32" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{9F1D6EEE-EBB4-CB41-B28B-E2B4E624CF7B}"/>
+    <hyperlink ref="E199" r:id="rId33" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A4D8DC59-CF03-AB46-B228-36CA85A4DF0B}"/>
+    <hyperlink ref="E200" r:id="rId34" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{037C5D27-29A9-1F42-A75A-456E2B4A0621}"/>
+    <hyperlink ref="E256" r:id="rId35" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A37982D1-074F-3544-A2DE-E4157C4F780E}"/>
+    <hyperlink ref="E258" r:id="rId36" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{BB5FACC7-CD2C-FE45-B4DD-D91E11E81D83}"/>
     <hyperlink ref="E16" r:id="rId37" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{00ED37B5-8506-3245-861A-CA1C1AC3558F}"/>
     <hyperlink ref="E23" r:id="rId38" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{D06C9844-319D-AF4B-B624-86E49DFDD56F}"/>
     <hyperlink ref="E39" r:id="rId39" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{8F963160-E885-F24F-983B-F758D5E01390}"/>
@@ -6755,50 +6988,50 @@
     <hyperlink ref="E53" r:id="rId41" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{C3A3A2B6-71BD-5A44-A4B6-2A3D84648B83}"/>
     <hyperlink ref="E59" r:id="rId42" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{512CF369-3C9C-EE4E-9862-C38ECA3C156B}"/>
     <hyperlink ref="E64" r:id="rId43" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{7DB732D8-9B46-6241-8043-A3D495DE2F77}"/>
-    <hyperlink ref="E88" r:id="rId44" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{366CAAEE-9710-7C48-9005-5CEC1F5E2457}"/>
-    <hyperlink ref="E89" r:id="rId45" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A95A3B5C-E418-F94D-A64C-9258D1124837}"/>
-    <hyperlink ref="E90" r:id="rId46" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{9D09F818-61C8-DC49-9F21-34A99B55B865}"/>
-    <hyperlink ref="E94" r:id="rId47" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{22BFAB59-6C09-B549-8E8C-86D66EA96504}"/>
-    <hyperlink ref="E128" r:id="rId48" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{5F0B925E-5FF8-8342-A085-58A41144E176}"/>
-    <hyperlink ref="E129" r:id="rId49" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{8FF51399-A809-4A45-9959-100D55878F76}"/>
-    <hyperlink ref="E130" r:id="rId50" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{2805BE9F-60B8-7842-9D2D-D0C377856689}"/>
-    <hyperlink ref="E131" r:id="rId51" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{62E23F42-328C-2242-BB24-C1A7F13426CE}"/>
-    <hyperlink ref="E132" r:id="rId52" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A52C7599-397F-F84B-B0C3-2D572D2EEAF0}"/>
-    <hyperlink ref="E149" r:id="rId53" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{231E0892-B8F6-E24E-B826-111026D8FFF8}"/>
-    <hyperlink ref="E150" r:id="rId54" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{BA523B54-FB35-4C4A-853B-958548DA1114}"/>
-    <hyperlink ref="E151" r:id="rId55" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{472BF315-F4FD-3044-8750-A6FEF3C4C4FD}"/>
-    <hyperlink ref="E152" r:id="rId56" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{D89167B3-23C7-B24F-9507-A6B1731A8B3F}"/>
-    <hyperlink ref="E153" r:id="rId57" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{AC1991FA-3781-0B4F-8B6E-FDFAF5BC8167}"/>
-    <hyperlink ref="E154" r:id="rId58" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{600AF58A-8A0E-6344-A310-004EEE0A9C20}"/>
-    <hyperlink ref="E155" r:id="rId59" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{194BF519-0C53-2E4C-9D07-38CBF02510E8}"/>
-    <hyperlink ref="E174" r:id="rId60" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A9E59886-BBF9-BA41-A657-1FB819B20162}"/>
-    <hyperlink ref="E175" r:id="rId61" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A01D83E6-F03C-2049-B4AE-BCBA02417920}"/>
-    <hyperlink ref="E178" r:id="rId62" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{2127131E-0E60-D444-9BF7-121C71784F90}"/>
-    <hyperlink ref="E179" r:id="rId63" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{DC2C6057-D434-114F-AAB2-70EDD8C27B4D}"/>
-    <hyperlink ref="E182" r:id="rId64" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{F043C4C2-6056-884F-BBAD-2AF0C512A4A7}"/>
-    <hyperlink ref="E186" r:id="rId65" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E315EA33-0BBE-594A-A340-3FE2E4D30A47}"/>
-    <hyperlink ref="E209" r:id="rId66" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{83056031-4ADF-1549-9CF7-182CB5A31DD5}"/>
-    <hyperlink ref="E210" r:id="rId67" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{06CC5F0A-286F-6C48-82A3-C1C3FB2BFE59}"/>
+    <hyperlink ref="E98" r:id="rId44" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{366CAAEE-9710-7C48-9005-5CEC1F5E2457}"/>
+    <hyperlink ref="E99" r:id="rId45" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A95A3B5C-E418-F94D-A64C-9258D1124837}"/>
+    <hyperlink ref="E100" r:id="rId46" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{9D09F818-61C8-DC49-9F21-34A99B55B865}"/>
+    <hyperlink ref="E108" r:id="rId47" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{22BFAB59-6C09-B549-8E8C-86D66EA96504}"/>
+    <hyperlink ref="E137" r:id="rId48" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{5F0B925E-5FF8-8342-A085-58A41144E176}"/>
+    <hyperlink ref="E138" r:id="rId49" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{8FF51399-A809-4A45-9959-100D55878F76}"/>
+    <hyperlink ref="E139" r:id="rId50" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{2805BE9F-60B8-7842-9D2D-D0C377856689}"/>
+    <hyperlink ref="E140" r:id="rId51" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{62E23F42-328C-2242-BB24-C1A7F13426CE}"/>
+    <hyperlink ref="E141" r:id="rId52" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A52C7599-397F-F84B-B0C3-2D572D2EEAF0}"/>
+    <hyperlink ref="E158" r:id="rId53" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{231E0892-B8F6-E24E-B826-111026D8FFF8}"/>
+    <hyperlink ref="E159" r:id="rId54" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{BA523B54-FB35-4C4A-853B-958548DA1114}"/>
+    <hyperlink ref="E160" r:id="rId55" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{472BF315-F4FD-3044-8750-A6FEF3C4C4FD}"/>
+    <hyperlink ref="E161" r:id="rId56" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{D89167B3-23C7-B24F-9507-A6B1731A8B3F}"/>
+    <hyperlink ref="E162" r:id="rId57" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{AC1991FA-3781-0B4F-8B6E-FDFAF5BC8167}"/>
+    <hyperlink ref="E163" r:id="rId58" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{600AF58A-8A0E-6344-A310-004EEE0A9C20}"/>
+    <hyperlink ref="E164" r:id="rId59" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{194BF519-0C53-2E4C-9D07-38CBF02510E8}"/>
+    <hyperlink ref="E183" r:id="rId60" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A9E59886-BBF9-BA41-A657-1FB819B20162}"/>
+    <hyperlink ref="E184" r:id="rId61" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A01D83E6-F03C-2049-B4AE-BCBA02417920}"/>
+    <hyperlink ref="E187" r:id="rId62" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{2127131E-0E60-D444-9BF7-121C71784F90}"/>
+    <hyperlink ref="E188" r:id="rId63" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{DC2C6057-D434-114F-AAB2-70EDD8C27B4D}"/>
+    <hyperlink ref="E191" r:id="rId64" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{F043C4C2-6056-884F-BBAD-2AF0C512A4A7}"/>
+    <hyperlink ref="E195" r:id="rId65" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E315EA33-0BBE-594A-A340-3FE2E4D30A47}"/>
+    <hyperlink ref="E218" r:id="rId66" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{83056031-4ADF-1549-9CF7-182CB5A31DD5}"/>
+    <hyperlink ref="E219" r:id="rId67" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{06CC5F0A-286F-6C48-82A3-C1C3FB2BFE59}"/>
     <hyperlink ref="E2" r:id="rId68" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{AA8ECBE2-B91F-E743-814A-7080AEF94A85}"/>
     <hyperlink ref="E3" r:id="rId69" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{3F7D9A7E-623F-094F-AD50-B6911114695A}"/>
     <hyperlink ref="E4" r:id="rId70" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{C5AE9D72-0C3D-9C48-A5FA-6DFC357E78B7}"/>
     <hyperlink ref="E5" r:id="rId71" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{8EF9F744-812B-6E4D-B9A0-CA6424FDC2DE}"/>
     <hyperlink ref="E6" r:id="rId72" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{55C8383D-4574-DA42-9457-AE73DF1469C6}"/>
-    <hyperlink ref="E176" r:id="rId73" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{52AC5BAF-942F-524C-98CB-602FCAC65F04}"/>
-    <hyperlink ref="E125" r:id="rId74" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{2ACF044A-391F-2B44-BD07-D6E7374CB4D6}"/>
-    <hyperlink ref="E126" r:id="rId75" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{F655B2DA-15F6-B943-B9A7-70853845711F}"/>
-    <hyperlink ref="E127" r:id="rId76" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A74188D1-560C-754B-A33A-F0B37342A2FE}"/>
+    <hyperlink ref="E185" r:id="rId73" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{52AC5BAF-942F-524C-98CB-602FCAC65F04}"/>
+    <hyperlink ref="E134" r:id="rId74" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{2ACF044A-391F-2B44-BD07-D6E7374CB4D6}"/>
+    <hyperlink ref="E135" r:id="rId75" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{F655B2DA-15F6-B943-B9A7-70853845711F}"/>
+    <hyperlink ref="E136" r:id="rId76" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A74188D1-560C-754B-A33A-F0B37342A2FE}"/>
     <hyperlink ref="E28" r:id="rId77" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{34CC8DD3-845E-E945-A8DC-70CEB7F561E8}"/>
     <hyperlink ref="E29" r:id="rId78" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{BE2B65FC-A70E-424B-9349-DCC583379E4E}"/>
     <hyperlink ref="E30" r:id="rId79" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{56E63E2C-1E6D-D745-A49C-CC99AC45788F}"/>
-    <hyperlink ref="E221" r:id="rId80" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{FF5CE431-F948-1F47-AC6F-4AAAA26A8F6E}"/>
-    <hyperlink ref="E243" r:id="rId81" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{F0B92C39-D7F8-7D49-9A31-E4041D7F7075}"/>
-    <hyperlink ref="E244" r:id="rId82" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{727BBB3D-6969-6140-9A61-BBCF85DD09F6}"/>
-    <hyperlink ref="E245" r:id="rId83" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{7796FCA0-8533-9540-8CEE-05530571B096}"/>
-    <hyperlink ref="E246" r:id="rId84" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{84696AFE-FDFD-FC4E-93AA-7CF329BB8682}"/>
-    <hyperlink ref="E109" r:id="rId85" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{C0077839-E429-CD47-94E5-23CDCD32B2AC}"/>
-    <hyperlink ref="E110" r:id="rId86" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{25DECC82-3563-594F-9825-EA10351776F3}"/>
-    <hyperlink ref="E111" r:id="rId87" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{38874DF8-8866-4344-90E8-B6E90746A228}"/>
+    <hyperlink ref="E230" r:id="rId80" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{FF5CE431-F948-1F47-AC6F-4AAAA26A8F6E}"/>
+    <hyperlink ref="E252" r:id="rId81" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{F0B92C39-D7F8-7D49-9A31-E4041D7F7075}"/>
+    <hyperlink ref="E253" r:id="rId82" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{727BBB3D-6969-6140-9A61-BBCF85DD09F6}"/>
+    <hyperlink ref="E254" r:id="rId83" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{7796FCA0-8533-9540-8CEE-05530571B096}"/>
+    <hyperlink ref="E255" r:id="rId84" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{84696AFE-FDFD-FC4E-93AA-7CF329BB8682}"/>
+    <hyperlink ref="E123" r:id="rId85" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{C0077839-E429-CD47-94E5-23CDCD32B2AC}"/>
+    <hyperlink ref="E124" r:id="rId86" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{25DECC82-3563-594F-9825-EA10351776F3}"/>
+    <hyperlink ref="E125" r:id="rId87" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{38874DF8-8866-4344-90E8-B6E90746A228}"/>
     <hyperlink ref="E42" r:id="rId88" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{4406DBDC-6713-534A-8665-820AC31DD303}"/>
     <hyperlink ref="E43" r:id="rId89" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{4C47A605-D65C-B747-8525-E361070AC0F5}"/>
     <hyperlink ref="E48" r:id="rId90" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{466609A5-0103-134B-871F-08A343A089DA}"/>
@@ -6809,33 +7042,33 @@
     <hyperlink ref="E61" r:id="rId95" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E002DC9E-6FAD-044C-8C85-A0C1A562114F}"/>
     <hyperlink ref="E65" r:id="rId96" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{F732F726-7B73-B24B-8432-4A8C8944D646}"/>
     <hyperlink ref="E66" r:id="rId97" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{EF06A30D-16E6-5E43-940C-3E275F0832C3}"/>
-    <hyperlink ref="E213" r:id="rId98" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{B92281CF-5EFC-0F42-9401-EAC8C567AF8E}"/>
-    <hyperlink ref="E214" r:id="rId99" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{00725E9A-B192-2345-A1F7-1B553BD6EC25}"/>
+    <hyperlink ref="E222" r:id="rId98" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{B92281CF-5EFC-0F42-9401-EAC8C567AF8E}"/>
+    <hyperlink ref="E223" r:id="rId99" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{00725E9A-B192-2345-A1F7-1B553BD6EC25}"/>
     <hyperlink ref="E32" r:id="rId100" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{995D7427-6707-6245-B5C3-1AD58991D468}"/>
     <hyperlink ref="E41" r:id="rId101" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{79108975-A280-4241-A06E-523FF1FA634A}"/>
-    <hyperlink ref="E121" r:id="rId102" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{2FE443F8-A444-7F4A-AFC0-AF128B4BF0A5}"/>
-    <hyperlink ref="E123" r:id="rId103" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{460026C8-DB11-484C-B9E7-B5D5EB5C3D11}"/>
-    <hyperlink ref="E124" r:id="rId104" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{5763A7C2-7278-C940-B3D3-71CCAACF77CF}"/>
-    <hyperlink ref="E171" r:id="rId105" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{FB59877C-8ACF-0341-BA24-B25C2E214354}"/>
-    <hyperlink ref="E172" r:id="rId106" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{0B88168B-B9E0-B54D-8F33-BF8415AE81AE}"/>
-    <hyperlink ref="E194" r:id="rId107" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{6709FBA5-8A48-F849-956B-59889466B176}"/>
-    <hyperlink ref="E195" r:id="rId108" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{53B5B381-94E8-1743-A954-3AF441A740E4}"/>
-    <hyperlink ref="E197" r:id="rId109" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{9E22593F-A5B9-F442-982C-4DC5936790B7}"/>
-    <hyperlink ref="E198" r:id="rId110" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{96B18842-E6B9-734D-9FD9-8493C018273E}"/>
-    <hyperlink ref="E199" r:id="rId111" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A13AEA93-C1EC-554F-BFBB-539D2AFF757F}"/>
-    <hyperlink ref="E211" r:id="rId112" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A0146B30-E98A-BA4B-8ECD-922687BC291B}"/>
-    <hyperlink ref="E217" r:id="rId113" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{B221975F-6E46-814A-86B0-67BE1B671FF7}"/>
-    <hyperlink ref="E218" r:id="rId114" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{1CF15151-7A17-1D4C-B72E-064019F38D37}"/>
-    <hyperlink ref="E219" r:id="rId115" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{00448650-CF82-954A-8E45-C09E8384E857}"/>
-    <hyperlink ref="E220" r:id="rId116" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{CB12C76D-143E-0146-893F-3BEBE9A081BA}"/>
-    <hyperlink ref="E200" r:id="rId117" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{B99815CE-844D-9B47-994B-B1F220F6B651}"/>
-    <hyperlink ref="E201" r:id="rId118" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{6CA2ADAB-6CA8-E941-9030-741A3F1D2BE3}"/>
-    <hyperlink ref="E202" r:id="rId119" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E467CD03-3C54-A740-95D4-922560755325}"/>
-    <hyperlink ref="E203" r:id="rId120" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{2B72F682-9060-A34B-9171-D75EB3E4B08B}"/>
-    <hyperlink ref="E204" r:id="rId121" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{308AA6A0-259B-DC4D-B562-CF0E74CEF2A7}"/>
-    <hyperlink ref="E205" r:id="rId122" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{BD70EB95-A1BF-5643-B270-4B973F4733ED}"/>
-    <hyperlink ref="E206" r:id="rId123" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{7C4E07C6-64F6-C644-952C-DCDB2D38B53B}"/>
-    <hyperlink ref="E230" r:id="rId124" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{FBE0ED11-37A9-F24E-A3AD-6DAE1DBF73AA}"/>
+    <hyperlink ref="E130" r:id="rId102" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{2FE443F8-A444-7F4A-AFC0-AF128B4BF0A5}"/>
+    <hyperlink ref="E132" r:id="rId103" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{460026C8-DB11-484C-B9E7-B5D5EB5C3D11}"/>
+    <hyperlink ref="E133" r:id="rId104" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{5763A7C2-7278-C940-B3D3-71CCAACF77CF}"/>
+    <hyperlink ref="E180" r:id="rId105" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{FB59877C-8ACF-0341-BA24-B25C2E214354}"/>
+    <hyperlink ref="E181" r:id="rId106" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{0B88168B-B9E0-B54D-8F33-BF8415AE81AE}"/>
+    <hyperlink ref="E203" r:id="rId107" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{6709FBA5-8A48-F849-956B-59889466B176}"/>
+    <hyperlink ref="E204" r:id="rId108" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{53B5B381-94E8-1743-A954-3AF441A740E4}"/>
+    <hyperlink ref="E206" r:id="rId109" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{9E22593F-A5B9-F442-982C-4DC5936790B7}"/>
+    <hyperlink ref="E207" r:id="rId110" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{96B18842-E6B9-734D-9FD9-8493C018273E}"/>
+    <hyperlink ref="E208" r:id="rId111" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A13AEA93-C1EC-554F-BFBB-539D2AFF757F}"/>
+    <hyperlink ref="E220" r:id="rId112" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A0146B30-E98A-BA4B-8ECD-922687BC291B}"/>
+    <hyperlink ref="E226" r:id="rId113" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{B221975F-6E46-814A-86B0-67BE1B671FF7}"/>
+    <hyperlink ref="E227" r:id="rId114" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{1CF15151-7A17-1D4C-B72E-064019F38D37}"/>
+    <hyperlink ref="E228" r:id="rId115" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{00448650-CF82-954A-8E45-C09E8384E857}"/>
+    <hyperlink ref="E229" r:id="rId116" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{CB12C76D-143E-0146-893F-3BEBE9A081BA}"/>
+    <hyperlink ref="E209" r:id="rId117" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{B99815CE-844D-9B47-994B-B1F220F6B651}"/>
+    <hyperlink ref="E210" r:id="rId118" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{6CA2ADAB-6CA8-E941-9030-741A3F1D2BE3}"/>
+    <hyperlink ref="E211" r:id="rId119" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E467CD03-3C54-A740-95D4-922560755325}"/>
+    <hyperlink ref="E212" r:id="rId120" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{2B72F682-9060-A34B-9171-D75EB3E4B08B}"/>
+    <hyperlink ref="E213" r:id="rId121" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{308AA6A0-259B-DC4D-B562-CF0E74CEF2A7}"/>
+    <hyperlink ref="E214" r:id="rId122" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{BD70EB95-A1BF-5643-B270-4B973F4733ED}"/>
+    <hyperlink ref="E215" r:id="rId123" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{7C4E07C6-64F6-C644-952C-DCDB2D38B53B}"/>
+    <hyperlink ref="E239" r:id="rId124" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{FBE0ED11-37A9-F24E-A3AD-6DAE1DBF73AA}"/>
     <hyperlink ref="E11" r:id="rId125" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{B0EAF00B-82F2-9B4A-9F23-E7BD8B9BF4FE}"/>
     <hyperlink ref="E12" r:id="rId126" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{99D1E2CA-624B-F741-BA68-8E0035FBDBB1}"/>
     <hyperlink ref="E13" r:id="rId127" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{0DCDA8D8-8365-2B47-AB59-D99C04B6F8FF}"/>
@@ -6844,41 +7077,41 @@
     <hyperlink ref="E20" r:id="rId130" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{2C09B0A3-785F-9D40-9E95-73A4CC33CD39}"/>
     <hyperlink ref="E21" r:id="rId131" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{B07AE4CD-065B-014F-945D-8C22F7C2B34B}"/>
     <hyperlink ref="E22" r:id="rId132" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{9D5263FA-A745-E249-81E1-A3A1EBFA986D}"/>
-    <hyperlink ref="E212" r:id="rId133" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{0121E6C6-B31D-AA49-ABEC-D673E7E48B1B}"/>
-    <hyperlink ref="E183" r:id="rId134" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{FC23F497-A709-4445-9117-79C4E2CA5870}"/>
-    <hyperlink ref="E184" r:id="rId135" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{1EC669BC-4EBF-5246-9D84-1805D4725B42}"/>
-    <hyperlink ref="E192" r:id="rId136" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{15891C3A-C11A-0F41-8E29-6F431B21D373}"/>
-    <hyperlink ref="E222" r:id="rId137" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{DBD87EA5-32BB-3B4B-8EBE-E9DABBF12E02}"/>
-    <hyperlink ref="E223" r:id="rId138" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{88DDC8F6-7EC3-7344-99BA-1BC707A35133}"/>
-    <hyperlink ref="E224" r:id="rId139" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{B37BCC93-28CA-5F4E-AD10-020665ACC9CB}"/>
-    <hyperlink ref="E225" r:id="rId140" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{3D0FD5F1-1DF6-DC4E-800E-D4B7D3C20C55}"/>
-    <hyperlink ref="E226" r:id="rId141" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{2895D787-FFEC-4D4E-B559-D6B6476A0904}"/>
-    <hyperlink ref="E227" r:id="rId142" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{34B81369-2649-0342-A57B-D79C4969A781}"/>
-    <hyperlink ref="E228" r:id="rId143" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{4D0CD62D-B215-1B41-838C-7150843EB0CF}"/>
-    <hyperlink ref="E229" r:id="rId144" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{B787123D-F369-6249-9D04-871D2498C6BC}"/>
-    <hyperlink ref="E231" r:id="rId145" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{991EFC9D-A3AE-7445-ABB1-86622FA98160}"/>
-    <hyperlink ref="E232" r:id="rId146" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{F5821AA8-9700-0041-933B-CA3CF22D378B}"/>
-    <hyperlink ref="E233" r:id="rId147" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{FE5E5ABF-D6BF-6248-A974-27D14E7ABB5D}"/>
-    <hyperlink ref="E234" r:id="rId148" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E11F50B2-4312-AA46-9154-614F6F7BD2BD}"/>
-    <hyperlink ref="E235" r:id="rId149" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{F7DB455D-154B-3B43-B38E-D367E97AD46F}"/>
-    <hyperlink ref="E236" r:id="rId150" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{6D58D3C4-159C-B04E-B96E-79C7934A30C7}"/>
-    <hyperlink ref="E237" r:id="rId151" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{AEF83A8B-7A4A-4145-8078-B73F2D15F52B}"/>
-    <hyperlink ref="E238" r:id="rId152" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{09E646E3-A506-C041-8935-2707B438D43F}"/>
-    <hyperlink ref="E239" r:id="rId153" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{FAEA1E62-4805-644E-B6D0-8E88A13D77E4}"/>
-    <hyperlink ref="E240" r:id="rId154" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{FCE9CA4C-05F0-E64D-9554-5EB5A38DB92F}"/>
-    <hyperlink ref="E241" r:id="rId155" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E49DD170-A34C-7A48-830A-9C203361A255}"/>
-    <hyperlink ref="E242" r:id="rId156" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{BE6A7F0C-171E-8C44-A6B0-34FB60CA3D6E}"/>
-    <hyperlink ref="E250" r:id="rId157" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{64E8B809-AEC1-8D42-AC50-9F96967E21F4}"/>
+    <hyperlink ref="E221" r:id="rId133" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{0121E6C6-B31D-AA49-ABEC-D673E7E48B1B}"/>
+    <hyperlink ref="E192" r:id="rId134" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{FC23F497-A709-4445-9117-79C4E2CA5870}"/>
+    <hyperlink ref="E193" r:id="rId135" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{1EC669BC-4EBF-5246-9D84-1805D4725B42}"/>
+    <hyperlink ref="E201" r:id="rId136" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{15891C3A-C11A-0F41-8E29-6F431B21D373}"/>
+    <hyperlink ref="E231" r:id="rId137" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{DBD87EA5-32BB-3B4B-8EBE-E9DABBF12E02}"/>
+    <hyperlink ref="E232" r:id="rId138" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{88DDC8F6-7EC3-7344-99BA-1BC707A35133}"/>
+    <hyperlink ref="E233" r:id="rId139" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{B37BCC93-28CA-5F4E-AD10-020665ACC9CB}"/>
+    <hyperlink ref="E234" r:id="rId140" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{3D0FD5F1-1DF6-DC4E-800E-D4B7D3C20C55}"/>
+    <hyperlink ref="E235" r:id="rId141" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{2895D787-FFEC-4D4E-B559-D6B6476A0904}"/>
+    <hyperlink ref="E236" r:id="rId142" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{34B81369-2649-0342-A57B-D79C4969A781}"/>
+    <hyperlink ref="E237" r:id="rId143" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{4D0CD62D-B215-1B41-838C-7150843EB0CF}"/>
+    <hyperlink ref="E238" r:id="rId144" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{B787123D-F369-6249-9D04-871D2498C6BC}"/>
+    <hyperlink ref="E240" r:id="rId145" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{991EFC9D-A3AE-7445-ABB1-86622FA98160}"/>
+    <hyperlink ref="E241" r:id="rId146" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{F5821AA8-9700-0041-933B-CA3CF22D378B}"/>
+    <hyperlink ref="E242" r:id="rId147" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{FE5E5ABF-D6BF-6248-A974-27D14E7ABB5D}"/>
+    <hyperlink ref="E243" r:id="rId148" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E11F50B2-4312-AA46-9154-614F6F7BD2BD}"/>
+    <hyperlink ref="E244" r:id="rId149" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{F7DB455D-154B-3B43-B38E-D367E97AD46F}"/>
+    <hyperlink ref="E245" r:id="rId150" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{6D58D3C4-159C-B04E-B96E-79C7934A30C7}"/>
+    <hyperlink ref="E246" r:id="rId151" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{AEF83A8B-7A4A-4145-8078-B73F2D15F52B}"/>
+    <hyperlink ref="E247" r:id="rId152" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{09E646E3-A506-C041-8935-2707B438D43F}"/>
+    <hyperlink ref="E248" r:id="rId153" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{FAEA1E62-4805-644E-B6D0-8E88A13D77E4}"/>
+    <hyperlink ref="E249" r:id="rId154" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{FCE9CA4C-05F0-E64D-9554-5EB5A38DB92F}"/>
+    <hyperlink ref="E250" r:id="rId155" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E49DD170-A34C-7A48-830A-9C203361A255}"/>
+    <hyperlink ref="E251" r:id="rId156" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{BE6A7F0C-171E-8C44-A6B0-34FB60CA3D6E}"/>
+    <hyperlink ref="E259" r:id="rId157" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{64E8B809-AEC1-8D42-AC50-9F96967E21F4}"/>
     <hyperlink ref="E9" r:id="rId158" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{CEE37C82-91E1-454B-8ABF-14117D6E79CF}"/>
     <hyperlink ref="E10" r:id="rId159" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{9E3FD569-211D-3B41-BD91-E778346B2239}"/>
     <hyperlink ref="E37" r:id="rId160" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{73F81832-F7F9-B841-94A7-4E82C134B1AA}"/>
     <hyperlink ref="E46" r:id="rId161" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{46D7C559-A62C-CC46-997C-9DA34915568B}"/>
     <hyperlink ref="E52" r:id="rId162" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E1CCB456-CCA0-BB4E-8E09-6E6E49443114}"/>
     <hyperlink ref="E58" r:id="rId163" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{3320AC2A-990B-BA4D-B0CF-B9FAC9E84481}"/>
-    <hyperlink ref="E193" r:id="rId164" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{3D50377E-4D4E-F84E-A635-11DA7FB87AF1}"/>
-    <hyperlink ref="E196" r:id="rId165" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{54B4ADA0-350C-1A42-A1A2-9E2FAE263262}"/>
-    <hyperlink ref="E215" r:id="rId166" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{B9AC6AC1-BB20-344B-AB3D-875D0659914B}"/>
-    <hyperlink ref="E216" r:id="rId167" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{ABDC7858-0EB1-9E4A-BCF6-1483EC52EAC0}"/>
+    <hyperlink ref="E202" r:id="rId164" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{3D50377E-4D4E-F84E-A635-11DA7FB87AF1}"/>
+    <hyperlink ref="E205" r:id="rId165" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{54B4ADA0-350C-1A42-A1A2-9E2FAE263262}"/>
+    <hyperlink ref="E224" r:id="rId166" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{B9AC6AC1-BB20-344B-AB3D-875D0659914B}"/>
+    <hyperlink ref="E225" r:id="rId167" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{ABDC7858-0EB1-9E4A-BCF6-1483EC52EAC0}"/>
     <hyperlink ref="E7" r:id="rId168" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{D0B799D4-926E-D449-95F2-B6CCCDAA2FD4}"/>
     <hyperlink ref="E8" r:id="rId169" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{14AB014D-D7B3-FF48-9829-351CE22ECC01}"/>
     <hyperlink ref="E17" r:id="rId170" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{54505237-79F9-5E44-B826-79A935EE98C8}"/>
@@ -6889,13 +7122,13 @@
     <hyperlink ref="E27" r:id="rId175" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{2D7FFE13-951D-7F48-9393-EEB25B6FC272}"/>
     <hyperlink ref="E70" r:id="rId176" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{40C809C1-9818-9046-BEA4-9C3CD07C5F1F}"/>
     <hyperlink ref="E72" r:id="rId177" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{6F083D95-DBE8-7C48-98C6-24AD66F2538B}"/>
-    <hyperlink ref="E112" r:id="rId178" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{7F96FDAD-EA69-1440-8169-AF3268A4E339}"/>
-    <hyperlink ref="E119" r:id="rId179" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{F9251548-DE61-E44A-AEE3-488673D91710}"/>
-    <hyperlink ref="E122" r:id="rId180" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{5CCC02C1-621C-584D-B212-613947EA7001}"/>
-    <hyperlink ref="E133" r:id="rId181" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{6B3891C9-7B79-3C4B-A397-93936D6E394B}"/>
-    <hyperlink ref="E134" r:id="rId182" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{26511542-000A-3E4B-9557-61AEEDEFAAE9}"/>
-    <hyperlink ref="E135" r:id="rId183" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Examination&amp;Cycle=2017-2018" xr:uid="{463482A5-3E7B-974B-BC61-7934C4726926}"/>
-    <hyperlink ref="E248" r:id="rId184" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{631746AE-4F9D-584E-8A42-999F81576AB5}"/>
+    <hyperlink ref="E89" r:id="rId178" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{7F96FDAD-EA69-1440-8169-AF3268A4E339}"/>
+    <hyperlink ref="E127" r:id="rId179" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{F9251548-DE61-E44A-AEE3-488673D91710}"/>
+    <hyperlink ref="E131" r:id="rId180" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{5CCC02C1-621C-584D-B212-613947EA7001}"/>
+    <hyperlink ref="E142" r:id="rId181" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{6B3891C9-7B79-3C4B-A397-93936D6E394B}"/>
+    <hyperlink ref="E143" r:id="rId182" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{26511542-000A-3E4B-9557-61AEEDEFAAE9}"/>
+    <hyperlink ref="E144" r:id="rId183" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Examination&amp;Cycle=2017-2018" xr:uid="{463482A5-3E7B-974B-BC61-7934C4726926}"/>
+    <hyperlink ref="E257" r:id="rId184" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{631746AE-4F9D-584E-8A42-999F81576AB5}"/>
     <hyperlink ref="E73" r:id="rId185" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Laboratory&amp;Cycle=2017-2018" xr:uid="{DE1718FC-819B-4342-8DB5-4FCA1B7DA05C}"/>
     <hyperlink ref="E74" r:id="rId186" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Laboratory&amp;Cycle=2017-2018" xr:uid="{02A12673-27FA-FA4A-A172-327291E16B11}"/>
     <hyperlink ref="E75" r:id="rId187" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Laboratory&amp;Cycle=2017-2018" xr:uid="{9AEB8038-5541-2B49-B9F2-EB2309C3DE99}"/>
@@ -6903,53 +7136,53 @@
     <hyperlink ref="E71" r:id="rId189" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{02484634-DD5B-294C-8378-19BA40436293}"/>
     <hyperlink ref="E68" r:id="rId190" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{C012C4CE-5FAE-A344-9017-2F832405EDAA}"/>
     <hyperlink ref="E69" r:id="rId191" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A0D6485F-5A79-F647-B0CE-FB6B55EBA71F}"/>
-    <hyperlink ref="E103" r:id="rId192" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A0A5E168-853A-CD4D-903B-F4619E24EB8F}"/>
-    <hyperlink ref="E113" r:id="rId193" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{6E78AD06-B676-5642-8A4C-CF1BCBA4E7FD}"/>
-    <hyperlink ref="E114" r:id="rId194" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{C54358B0-067B-5642-AE31-9051213ADA3F}"/>
-    <hyperlink ref="E115" r:id="rId195" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{D445B1B1-BCFE-9345-9821-A0217C4E06E1}"/>
-    <hyperlink ref="E116" r:id="rId196" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{97C70484-6D81-AF4E-BC22-EA2C92BA1D3B}"/>
-    <hyperlink ref="E117" r:id="rId197" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{71A1F62F-60C7-054C-B900-3EC71C5F6EF4}"/>
-    <hyperlink ref="E187" r:id="rId198" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{1EF15C54-591A-D64C-AB23-20AFF54B1054}"/>
-    <hyperlink ref="E188" r:id="rId199" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{2CDB2633-BDF5-F943-A6F7-975357B0A23B}"/>
-    <hyperlink ref="E189" r:id="rId200" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{72F99A8C-8602-3043-AD27-774DB81C45B1}"/>
-    <hyperlink ref="E180" r:id="rId201" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E17E047E-FEEE-B943-AD89-F7A1210E1894}"/>
+    <hyperlink ref="E117" r:id="rId192" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A0A5E168-853A-CD4D-903B-F4619E24EB8F}"/>
+    <hyperlink ref="E90" r:id="rId193" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{6E78AD06-B676-5642-8A4C-CF1BCBA4E7FD}"/>
+    <hyperlink ref="E91" r:id="rId194" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{C54358B0-067B-5642-AE31-9051213ADA3F}"/>
+    <hyperlink ref="E92" r:id="rId195" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{D445B1B1-BCFE-9345-9821-A0217C4E06E1}"/>
+    <hyperlink ref="E93" r:id="rId196" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{97C70484-6D81-AF4E-BC22-EA2C92BA1D3B}"/>
+    <hyperlink ref="E94" r:id="rId197" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{71A1F62F-60C7-054C-B900-3EC71C5F6EF4}"/>
+    <hyperlink ref="E196" r:id="rId198" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{1EF15C54-591A-D64C-AB23-20AFF54B1054}"/>
+    <hyperlink ref="E197" r:id="rId199" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{2CDB2633-BDF5-F943-A6F7-975357B0A23B}"/>
+    <hyperlink ref="E198" r:id="rId200" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{72F99A8C-8602-3043-AD27-774DB81C45B1}"/>
+    <hyperlink ref="E189" r:id="rId201" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E17E047E-FEEE-B943-AD89-F7A1210E1894}"/>
     <hyperlink ref="E24" r:id="rId202" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{C7B9F756-98D1-4049-AA31-88D1B76B0A8A}"/>
     <hyperlink ref="E34" r:id="rId203" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{772DDF10-8613-044C-A341-BDF10FDD4744}"/>
     <hyperlink ref="E35" r:id="rId204" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{498A2AF0-0D95-DD4A-B9FE-A76B4895ABC6}"/>
     <hyperlink ref="E36" r:id="rId205" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A6893126-7FC8-1F4A-A9EF-E33CF7C64039}"/>
-    <hyperlink ref="E91" r:id="rId206" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{F96407D2-5097-7345-880A-4156BC4D3019}"/>
-    <hyperlink ref="E93" r:id="rId207" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{DCC94476-248C-8E4D-94E6-83B535EF8036}"/>
-    <hyperlink ref="E95" r:id="rId208" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{B8545992-0E79-BB41-BFE1-1C12ACC3DFBE}"/>
-    <hyperlink ref="E96" r:id="rId209" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{EAA974E6-43D3-7B48-BF61-65BE82C7B48E}"/>
-    <hyperlink ref="E97" r:id="rId210" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{2B2BD9DB-7010-544B-9939-69FAFBC8CCE5}"/>
-    <hyperlink ref="E98" r:id="rId211" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{8A2DDD84-637D-1544-B559-1583F97FF8BB}"/>
-    <hyperlink ref="E99" r:id="rId212" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{4F75A309-CD45-6C4F-BD88-817E572C7DAC}"/>
-    <hyperlink ref="E100" r:id="rId213" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{CF5F42EB-AC96-0D43-931D-4944E767FCF9}"/>
-    <hyperlink ref="E101" r:id="rId214" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E3E5B962-0308-D546-96FE-9DE6FCBF325B}"/>
-    <hyperlink ref="E102" r:id="rId215" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{1EB8FE80-95A7-604E-9219-787FB955D4BB}"/>
-    <hyperlink ref="E104" r:id="rId216" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{AA0FB1FB-9865-B144-A904-5CCDD305F0E4}"/>
-    <hyperlink ref="E105" r:id="rId217" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{090F6559-9C86-DF45-AE3E-F138A15E1FF1}"/>
-    <hyperlink ref="E106" r:id="rId218" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{0E799595-F37E-264F-BAF2-62EEAE74D26C}"/>
-    <hyperlink ref="E108" r:id="rId219" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{6159F737-A241-7243-8925-E04554C5A2B0}"/>
-    <hyperlink ref="E118" r:id="rId220" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{2F5D5B9D-5986-4145-B45B-B46A773D6099}"/>
-    <hyperlink ref="E156" r:id="rId221" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{3EB91147-F18A-294B-808C-B35C4E8FBE67}"/>
-    <hyperlink ref="E157" r:id="rId222" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{B6346CD4-337C-254D-8E3B-4EA4D821F350}"/>
-    <hyperlink ref="E158" r:id="rId223" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{1B26C5BF-8648-6543-9F47-422F8C767BA3}"/>
-    <hyperlink ref="E159" r:id="rId224" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{425D67FD-44A3-E046-B07B-FA6CA1D241A9}"/>
-    <hyperlink ref="E160" r:id="rId225" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{34E327D1-A4CF-D844-A353-ABC766D136A2}"/>
-    <hyperlink ref="E161" r:id="rId226" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{CEAAB86F-C3DA-5949-A2FE-5CB238B8EFF7}"/>
-    <hyperlink ref="E162" r:id="rId227" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{270A6C12-8319-D24D-AD9C-68B828ECF869}"/>
-    <hyperlink ref="E163" r:id="rId228" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{45170887-B839-DB4B-8C90-BC2CDE732407}"/>
-    <hyperlink ref="E164" r:id="rId229" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{4B625250-71F1-8A43-B627-45CFC6B1AF84}"/>
-    <hyperlink ref="E165" r:id="rId230" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{47595A5F-7B60-FD4C-9945-58DD9999D882}"/>
-    <hyperlink ref="E166" r:id="rId231" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E5D4DB19-5EAE-B448-9705-380EB60BF8F8}"/>
-    <hyperlink ref="E167" r:id="rId232" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A723A237-EB87-4048-B5AC-E01251794A9B}"/>
-    <hyperlink ref="E168" r:id="rId233" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{8EE75365-8208-E742-8B7E-B007784676EB}"/>
-    <hyperlink ref="E169" r:id="rId234" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A73FB736-EDDA-4048-B83D-20EA26617724}"/>
-    <hyperlink ref="E170" r:id="rId235" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A25573E3-C820-B449-958C-EFB42800FBAE}"/>
-    <hyperlink ref="E173" r:id="rId236" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{81ACBF65-9B77-A846-A546-CD317C376A2C}"/>
-    <hyperlink ref="E185" r:id="rId237" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A6EBE3F2-7F8A-CB4B-B361-1966303C178D}"/>
-    <hyperlink ref="E208" r:id="rId238" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A172B714-DAF3-6440-974F-735DC7818FF5}"/>
+    <hyperlink ref="E104" r:id="rId206" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{F96407D2-5097-7345-880A-4156BC4D3019}"/>
+    <hyperlink ref="E107" r:id="rId207" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{DCC94476-248C-8E4D-94E6-83B535EF8036}"/>
+    <hyperlink ref="E109" r:id="rId208" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{B8545992-0E79-BB41-BFE1-1C12ACC3DFBE}"/>
+    <hyperlink ref="E110" r:id="rId209" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{EAA974E6-43D3-7B48-BF61-65BE82C7B48E}"/>
+    <hyperlink ref="E111" r:id="rId210" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{2B2BD9DB-7010-544B-9939-69FAFBC8CCE5}"/>
+    <hyperlink ref="E112" r:id="rId211" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{8A2DDD84-637D-1544-B559-1583F97FF8BB}"/>
+    <hyperlink ref="E113" r:id="rId212" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{4F75A309-CD45-6C4F-BD88-817E572C7DAC}"/>
+    <hyperlink ref="E114" r:id="rId213" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{CF5F42EB-AC96-0D43-931D-4944E767FCF9}"/>
+    <hyperlink ref="E115" r:id="rId214" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E3E5B962-0308-D546-96FE-9DE6FCBF325B}"/>
+    <hyperlink ref="E116" r:id="rId215" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{1EB8FE80-95A7-604E-9219-787FB955D4BB}"/>
+    <hyperlink ref="E118" r:id="rId216" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{AA0FB1FB-9865-B144-A904-5CCDD305F0E4}"/>
+    <hyperlink ref="E119" r:id="rId217" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{090F6559-9C86-DF45-AE3E-F138A15E1FF1}"/>
+    <hyperlink ref="E120" r:id="rId218" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{0E799595-F37E-264F-BAF2-62EEAE74D26C}"/>
+    <hyperlink ref="E122" r:id="rId219" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{6159F737-A241-7243-8925-E04554C5A2B0}"/>
+    <hyperlink ref="E126" r:id="rId220" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{2F5D5B9D-5986-4145-B45B-B46A773D6099}"/>
+    <hyperlink ref="E165" r:id="rId221" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{3EB91147-F18A-294B-808C-B35C4E8FBE67}"/>
+    <hyperlink ref="E166" r:id="rId222" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{B6346CD4-337C-254D-8E3B-4EA4D821F350}"/>
+    <hyperlink ref="E167" r:id="rId223" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{1B26C5BF-8648-6543-9F47-422F8C767BA3}"/>
+    <hyperlink ref="E168" r:id="rId224" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{425D67FD-44A3-E046-B07B-FA6CA1D241A9}"/>
+    <hyperlink ref="E169" r:id="rId225" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{34E327D1-A4CF-D844-A353-ABC766D136A2}"/>
+    <hyperlink ref="E170" r:id="rId226" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{CEAAB86F-C3DA-5949-A2FE-5CB238B8EFF7}"/>
+    <hyperlink ref="E171" r:id="rId227" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{270A6C12-8319-D24D-AD9C-68B828ECF869}"/>
+    <hyperlink ref="E172" r:id="rId228" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{45170887-B839-DB4B-8C90-BC2CDE732407}"/>
+    <hyperlink ref="E173" r:id="rId229" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{4B625250-71F1-8A43-B627-45CFC6B1AF84}"/>
+    <hyperlink ref="E174" r:id="rId230" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{47595A5F-7B60-FD4C-9945-58DD9999D882}"/>
+    <hyperlink ref="E175" r:id="rId231" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{E5D4DB19-5EAE-B448-9705-380EB60BF8F8}"/>
+    <hyperlink ref="E176" r:id="rId232" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A723A237-EB87-4048-B5AC-E01251794A9B}"/>
+    <hyperlink ref="E177" r:id="rId233" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{8EE75365-8208-E742-8B7E-B007784676EB}"/>
+    <hyperlink ref="E178" r:id="rId234" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A73FB736-EDDA-4048-B83D-20EA26617724}"/>
+    <hyperlink ref="E179" r:id="rId235" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A25573E3-C820-B449-958C-EFB42800FBAE}"/>
+    <hyperlink ref="E182" r:id="rId236" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{81ACBF65-9B77-A846-A546-CD317C376A2C}"/>
+    <hyperlink ref="E194" r:id="rId237" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A6EBE3F2-7F8A-CB4B-B361-1966303C178D}"/>
+    <hyperlink ref="E217" r:id="rId238" display="https://wwwn.cdc.gov/Nchs/Nhanes/Search/DataPage.aspx?Component=Questionnaire&amp;Cycle=2017-2018" xr:uid="{A172B714-DAF3-6440-974F-735DC7818FF5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
